--- a/assets/BDD copy.xlsx
+++ b/assets/BDD copy.xlsx
@@ -1,134 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Particulier" sheetId="1" r:id="rId4"/>
+    <sheet name="Particulier" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>Civilité</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Adresse</t>
-  </si>
-  <si>
-    <t>Ville</t>
-  </si>
-  <si>
-    <t>Code Postal</t>
-  </si>
-  <si>
-    <t>Date intervention</t>
-  </si>
-  <si>
-    <t>Motif intervention</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>BRESSAN</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
-  <si>
-    <t>0781146366</t>
-  </si>
-  <si>
-    <t>bcllam.charko9@gmail.com</t>
-  </si>
-  <si>
-    <t>25 Rue Saint Jacques</t>
-  </si>
-  <si>
-    <t>Pertuis</t>
-  </si>
-  <si>
-    <t>Plomberie</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>Mme</t>
-  </si>
-  <si>
-    <t>BENHAMOU</t>
-  </si>
-  <si>
-    <t>Laurence</t>
-  </si>
-  <si>
-    <t>0610610839</t>
-  </si>
-  <si>
-    <t>emalodeux@gmail.com</t>
-  </si>
-  <si>
-    <t>24 Rue de l'Enclos</t>
-  </si>
-  <si>
-    <t>Chauffage</t>
-  </si>
-  <si>
-    <t>Cyril</t>
-  </si>
-  <si>
-    <t>0610563621</t>
-  </si>
-  <si>
-    <t>bressancyrilmail@gmail.com</t>
-  </si>
-  <si>
-    <t>Le Clergou</t>
-  </si>
-  <si>
-    <t>Sumène</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d mmmm yyyy"/>
     <numFmt numFmtId="165" formatCode="dd mmmm yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
+      <name val="Arial"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font/>
     <font>
@@ -138,17 +40,17 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
@@ -158,97 +60,139 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,3523 +390,3601 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AD947"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.29"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="5" max="5" width="32.57"/>
-    <col customWidth="1" min="6" max="6" width="36.14"/>
-    <col customWidth="1" min="7" max="7" width="22.14"/>
-    <col customWidth="1" min="8" max="8" width="8.57"/>
-    <col customWidth="1" min="9" max="9" width="17.57"/>
-    <col customWidth="1" min="10" max="10" width="15.71"/>
+    <col width="10.29" customWidth="1" style="28" min="1" max="1"/>
+    <col width="20.57" customWidth="1" style="28" min="2" max="2"/>
+    <col width="32.57" customWidth="1" style="28" min="5" max="5"/>
+    <col width="36.14" customWidth="1" style="28" min="6" max="6"/>
+    <col width="22.14" customWidth="1" style="28" min="7" max="7"/>
+    <col width="8.57" customWidth="1" style="28" min="8" max="8"/>
+    <col width="17.57" customWidth="1" style="28" min="9" max="9"/>
+    <col width="15.71" customWidth="1" style="28" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Civilité</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Prénom</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Telephone</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Ville</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Code Postal</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Date intervention</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Motif intervention</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="3" t="n"/>
+      <c r="Z1" s="3" t="n"/>
+      <c r="AA1" s="3" t="n"/>
+      <c r="AB1" s="3" t="n"/>
+      <c r="AC1" s="3" t="n"/>
+      <c r="AD1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5">
-        <v>84120.0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>44205.0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>BRESSAN</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Antoine</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>0781146366</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>bcllam.charko9@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>25 Rue Saint Jacques</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>Pertuis</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>84120</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>44205</v>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>Plomberie</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5">
-        <v>84120.0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>44397.0</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>18</v>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Mme</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>BENHAMOU</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Laurence</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>0610610839</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>emalodeux@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>24 Rue de l'Enclos</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>Pertuis</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>84120</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>44397</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>Chauffage</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4">
-        <v>20000.0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>44462.0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>18</v>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>BRESSAN</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Cyril</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>0610563621</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>bressancyrilmail@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>Le Clergou</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Sumène</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>44462</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>Plomberie</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>oui</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="D5" s="8" t="n"/>
+      <c r="I5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="D6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="D6" s="8" t="n"/>
+      <c r="I6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="D7" s="6"/>
-      <c r="I7" s="7"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="I7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="D8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="I8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="D9" s="6"/>
-      <c r="I9" s="7"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="I9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="D10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="I10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="D11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="I11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="D12" s="6"/>
-      <c r="I12" s="7"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="I12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="D13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="D13" s="8" t="n"/>
+      <c r="I13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="D14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="D14" s="8" t="n"/>
+      <c r="I14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="D15" s="6"/>
-      <c r="I15" s="7"/>
+      <c r="D15" s="8" t="n"/>
+      <c r="I15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="D16" s="6"/>
-      <c r="I16" s="7"/>
+      <c r="D16" s="8" t="n"/>
+      <c r="I16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="D17" s="6"/>
-      <c r="I17" s="7"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="I17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="D18" s="6"/>
-      <c r="I18" s="7"/>
+      <c r="D18" s="8" t="n"/>
+      <c r="I18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="D19" s="6"/>
-      <c r="I19" s="7"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="I19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="D20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="D20" s="8" t="n"/>
+      <c r="I20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="D21" s="6"/>
-      <c r="I21" s="7"/>
+      <c r="D21" s="8" t="n"/>
+      <c r="I21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="D22" s="6"/>
-      <c r="I22" s="7"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="I22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="D23" s="8"/>
-      <c r="I23" s="7"/>
+      <c r="D23" s="8" t="n"/>
+      <c r="I23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="D24" s="6"/>
-      <c r="I24" s="7"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="I24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="D25" s="6"/>
-      <c r="I25" s="7"/>
+      <c r="D25" s="8" t="n"/>
+      <c r="I25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="D26" s="6"/>
-      <c r="I26" s="7"/>
+      <c r="D26" s="8" t="n"/>
+      <c r="I26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="D27" s="6"/>
-      <c r="I27" s="7"/>
+      <c r="D27" s="8" t="n"/>
+      <c r="I27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="D28" s="6"/>
-      <c r="I28" s="7"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="I28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="D29" s="6"/>
-      <c r="I29" s="7"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="I29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="D30" s="6"/>
-      <c r="I30" s="7"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="I30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="D31" s="6"/>
-      <c r="I31" s="7"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="I31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="D32" s="6"/>
-      <c r="I32" s="7"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="I32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="D33" s="6"/>
-      <c r="I33" s="7"/>
+      <c r="D33" s="8" t="n"/>
+      <c r="I33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="D34" s="6"/>
-      <c r="I34" s="7"/>
+      <c r="D34" s="8" t="n"/>
+      <c r="I34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="D35" s="6"/>
-      <c r="I35" s="7"/>
+      <c r="D35" s="8" t="n"/>
+      <c r="I35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="D36" s="6"/>
-      <c r="I36" s="7"/>
+      <c r="D36" s="8" t="n"/>
+      <c r="I36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="D37" s="6"/>
-      <c r="I37" s="7"/>
+      <c r="D37" s="8" t="n"/>
+      <c r="I37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="6"/>
-      <c r="I38" s="7"/>
+      <c r="D38" s="8" t="n"/>
+      <c r="I38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="6"/>
-      <c r="I39" s="7"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="I39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="6"/>
-      <c r="I40" s="7"/>
+      <c r="D40" s="8" t="n"/>
+      <c r="I40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="6"/>
-      <c r="I41" s="7"/>
+      <c r="D41" s="8" t="n"/>
+      <c r="I41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="6"/>
-      <c r="I42" s="7"/>
+      <c r="D42" s="8" t="n"/>
+      <c r="I42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="6"/>
-      <c r="I43" s="7"/>
+      <c r="D43" s="8" t="n"/>
+      <c r="I43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="6"/>
-      <c r="I44" s="7"/>
+      <c r="D44" s="8" t="n"/>
+      <c r="I44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="6"/>
-      <c r="I45" s="7"/>
+      <c r="D45" s="8" t="n"/>
+      <c r="I45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="D46" s="6"/>
-      <c r="I46" s="7"/>
+      <c r="D46" s="8" t="n"/>
+      <c r="I46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="D47" s="6"/>
-      <c r="I47" s="7"/>
+      <c r="D47" s="8" t="n"/>
+      <c r="I47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="D48" s="6"/>
-      <c r="I48" s="7"/>
+      <c r="D48" s="8" t="n"/>
+      <c r="I48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="D49" s="6"/>
-      <c r="I49" s="7"/>
+      <c r="D49" s="8" t="n"/>
+      <c r="I49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="D50" s="6"/>
-      <c r="I50" s="7"/>
+      <c r="D50" s="8" t="n"/>
+      <c r="I50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="D51" s="6"/>
-      <c r="I51" s="7"/>
+      <c r="D51" s="8" t="n"/>
+      <c r="I51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="D52" s="6"/>
-      <c r="I52" s="7"/>
+      <c r="D52" s="8" t="n"/>
+      <c r="I52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="D53" s="6"/>
-      <c r="I53" s="7"/>
+      <c r="D53" s="8" t="n"/>
+      <c r="I53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="D54" s="6"/>
-      <c r="I54" s="7"/>
+      <c r="D54" s="8" t="n"/>
+      <c r="I54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="D55" s="6"/>
-      <c r="I55" s="7"/>
+      <c r="D55" s="8" t="n"/>
+      <c r="I55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="D56" s="6"/>
-      <c r="I56" s="7"/>
+      <c r="D56" s="8" t="n"/>
+      <c r="I56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="D57" s="6"/>
-      <c r="I57" s="7"/>
+      <c r="D57" s="8" t="n"/>
+      <c r="I57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="D58" s="6"/>
-      <c r="I58" s="7"/>
+      <c r="D58" s="8" t="n"/>
+      <c r="I58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="D59" s="6"/>
-      <c r="I59" s="7"/>
+      <c r="D59" s="8" t="n"/>
+      <c r="I59" s="7" t="n"/>
     </row>
     <row r="60">
-      <c r="D60" s="6"/>
-      <c r="I60" s="7"/>
+      <c r="D60" s="8" t="n"/>
+      <c r="I60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="D61" s="6"/>
-      <c r="I61" s="7"/>
+      <c r="D61" s="8" t="n"/>
+      <c r="I61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="D62" s="6"/>
-      <c r="I62" s="7"/>
+      <c r="D62" s="8" t="n"/>
+      <c r="I62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="D63" s="6"/>
-      <c r="I63" s="7"/>
+      <c r="D63" s="8" t="n"/>
+      <c r="I63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="D64" s="6"/>
-      <c r="I64" s="7"/>
+      <c r="D64" s="8" t="n"/>
+      <c r="I64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="D65" s="6"/>
-      <c r="I65" s="7"/>
+      <c r="D65" s="8" t="n"/>
+      <c r="I65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="D66" s="6"/>
-      <c r="I66" s="7"/>
+      <c r="D66" s="8" t="n"/>
+      <c r="I66" s="7" t="n"/>
     </row>
     <row r="67">
-      <c r="D67" s="6"/>
-      <c r="I67" s="7"/>
+      <c r="D67" s="8" t="n"/>
+      <c r="I67" s="7" t="n"/>
     </row>
     <row r="68">
-      <c r="D68" s="6"/>
-      <c r="I68" s="7"/>
+      <c r="D68" s="8" t="n"/>
+      <c r="I68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="D69" s="6"/>
-      <c r="I69" s="7"/>
+      <c r="D69" s="8" t="n"/>
+      <c r="I69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="D70" s="6"/>
-      <c r="I70" s="7"/>
+      <c r="D70" s="8" t="n"/>
+      <c r="I70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="D71" s="6"/>
-      <c r="I71" s="7"/>
+      <c r="D71" s="8" t="n"/>
+      <c r="I71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="D72" s="6"/>
-      <c r="I72" s="7"/>
+      <c r="D72" s="8" t="n"/>
+      <c r="I72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="D73" s="6"/>
-      <c r="I73" s="7"/>
+      <c r="D73" s="8" t="n"/>
+      <c r="I73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="D74" s="6"/>
-      <c r="I74" s="7"/>
+      <c r="D74" s="8" t="n"/>
+      <c r="I74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="D75" s="6"/>
-      <c r="I75" s="7"/>
+      <c r="D75" s="8" t="n"/>
+      <c r="I75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="D76" s="6"/>
-      <c r="I76" s="7"/>
+      <c r="D76" s="8" t="n"/>
+      <c r="I76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="D77" s="6"/>
-      <c r="I77" s="7"/>
+      <c r="D77" s="8" t="n"/>
+      <c r="I77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="D78" s="6"/>
-      <c r="I78" s="7"/>
+      <c r="D78" s="8" t="n"/>
+      <c r="I78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="D79" s="6"/>
-      <c r="I79" s="7"/>
+      <c r="D79" s="8" t="n"/>
+      <c r="I79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="D80" s="6"/>
-      <c r="I80" s="7"/>
+      <c r="D80" s="8" t="n"/>
+      <c r="I80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="D81" s="6"/>
-      <c r="I81" s="7"/>
+      <c r="D81" s="8" t="n"/>
+      <c r="I81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="D82" s="6"/>
-      <c r="I82" s="7"/>
+      <c r="D82" s="8" t="n"/>
+      <c r="I82" s="7" t="n"/>
     </row>
     <row r="83">
-      <c r="D83" s="6"/>
-      <c r="I83" s="7"/>
+      <c r="D83" s="8" t="n"/>
+      <c r="I83" s="7" t="n"/>
     </row>
     <row r="84">
-      <c r="D84" s="6"/>
-      <c r="I84" s="7"/>
+      <c r="D84" s="8" t="n"/>
+      <c r="I84" s="7" t="n"/>
     </row>
     <row r="85">
-      <c r="D85" s="6"/>
-      <c r="I85" s="7"/>
+      <c r="D85" s="8" t="n"/>
+      <c r="I85" s="7" t="n"/>
     </row>
     <row r="86">
-      <c r="D86" s="6"/>
-      <c r="I86" s="7"/>
+      <c r="D86" s="8" t="n"/>
+      <c r="I86" s="7" t="n"/>
     </row>
     <row r="87">
-      <c r="D87" s="6"/>
-      <c r="I87" s="7"/>
+      <c r="D87" s="8" t="n"/>
+      <c r="I87" s="7" t="n"/>
     </row>
     <row r="88">
-      <c r="D88" s="6"/>
-      <c r="I88" s="7"/>
+      <c r="D88" s="8" t="n"/>
+      <c r="I88" s="7" t="n"/>
     </row>
     <row r="89">
-      <c r="D89" s="6"/>
-      <c r="I89" s="7"/>
+      <c r="D89" s="8" t="n"/>
+      <c r="I89" s="7" t="n"/>
     </row>
     <row r="90">
-      <c r="D90" s="6"/>
-      <c r="I90" s="7"/>
+      <c r="D90" s="8" t="n"/>
+      <c r="I90" s="7" t="n"/>
     </row>
     <row r="91">
-      <c r="D91" s="6"/>
-      <c r="I91" s="7"/>
+      <c r="D91" s="8" t="n"/>
+      <c r="I91" s="7" t="n"/>
     </row>
     <row r="92">
-      <c r="D92" s="6"/>
-      <c r="I92" s="7"/>
+      <c r="D92" s="8" t="n"/>
+      <c r="I92" s="7" t="n"/>
     </row>
     <row r="93">
-      <c r="D93" s="6"/>
-      <c r="I93" s="7"/>
+      <c r="D93" s="8" t="n"/>
+      <c r="I93" s="7" t="n"/>
     </row>
     <row r="94">
-      <c r="D94" s="6"/>
-      <c r="I94" s="7"/>
+      <c r="D94" s="8" t="n"/>
+      <c r="I94" s="7" t="n"/>
     </row>
     <row r="95">
-      <c r="D95" s="6"/>
-      <c r="I95" s="7"/>
+      <c r="D95" s="8" t="n"/>
+      <c r="I95" s="7" t="n"/>
     </row>
     <row r="96">
-      <c r="D96" s="6"/>
-      <c r="I96" s="7"/>
+      <c r="D96" s="8" t="n"/>
+      <c r="I96" s="7" t="n"/>
     </row>
     <row r="97">
-      <c r="D97" s="6"/>
-      <c r="I97" s="7"/>
+      <c r="D97" s="8" t="n"/>
+      <c r="I97" s="7" t="n"/>
     </row>
     <row r="98">
-      <c r="D98" s="6"/>
-      <c r="I98" s="7"/>
+      <c r="D98" s="8" t="n"/>
+      <c r="I98" s="7" t="n"/>
     </row>
     <row r="99">
-      <c r="D99" s="6"/>
-      <c r="I99" s="7"/>
+      <c r="D99" s="8" t="n"/>
+      <c r="I99" s="7" t="n"/>
     </row>
     <row r="100">
-      <c r="D100" s="6"/>
-      <c r="I100" s="7"/>
+      <c r="D100" s="8" t="n"/>
+      <c r="I100" s="7" t="n"/>
     </row>
     <row r="101">
-      <c r="D101" s="6"/>
-      <c r="I101" s="7"/>
+      <c r="D101" s="8" t="n"/>
+      <c r="I101" s="7" t="n"/>
     </row>
     <row r="102">
-      <c r="D102" s="6"/>
-      <c r="I102" s="7"/>
+      <c r="D102" s="8" t="n"/>
+      <c r="I102" s="7" t="n"/>
     </row>
     <row r="103">
-      <c r="D103" s="6"/>
-      <c r="I103" s="7"/>
+      <c r="D103" s="8" t="n"/>
+      <c r="I103" s="7" t="n"/>
     </row>
     <row r="104">
-      <c r="D104" s="6"/>
-      <c r="I104" s="7"/>
+      <c r="D104" s="8" t="n"/>
+      <c r="I104" s="7" t="n"/>
     </row>
     <row r="105">
-      <c r="D105" s="6"/>
-      <c r="I105" s="7"/>
+      <c r="D105" s="8" t="n"/>
+      <c r="I105" s="7" t="n"/>
     </row>
     <row r="106">
-      <c r="D106" s="6"/>
-      <c r="I106" s="7"/>
+      <c r="D106" s="8" t="n"/>
+      <c r="I106" s="7" t="n"/>
     </row>
     <row r="107">
-      <c r="D107" s="6"/>
-      <c r="I107" s="7"/>
+      <c r="D107" s="8" t="n"/>
+      <c r="I107" s="7" t="n"/>
     </row>
     <row r="108">
-      <c r="D108" s="6"/>
-      <c r="I108" s="7"/>
+      <c r="D108" s="8" t="n"/>
+      <c r="I108" s="7" t="n"/>
     </row>
     <row r="109">
-      <c r="D109" s="6"/>
-      <c r="I109" s="7"/>
+      <c r="D109" s="8" t="n"/>
+      <c r="I109" s="7" t="n"/>
     </row>
     <row r="110">
-      <c r="D110" s="6"/>
-      <c r="I110" s="7"/>
+      <c r="D110" s="8" t="n"/>
+      <c r="I110" s="7" t="n"/>
     </row>
     <row r="111">
-      <c r="D111" s="6"/>
-      <c r="I111" s="7"/>
+      <c r="D111" s="8" t="n"/>
+      <c r="I111" s="7" t="n"/>
     </row>
     <row r="112">
-      <c r="D112" s="6"/>
-      <c r="I112" s="7"/>
+      <c r="D112" s="8" t="n"/>
+      <c r="I112" s="7" t="n"/>
     </row>
     <row r="113">
-      <c r="D113" s="6"/>
-      <c r="I113" s="7"/>
+      <c r="D113" s="8" t="n"/>
+      <c r="I113" s="7" t="n"/>
     </row>
     <row r="114">
-      <c r="D114" s="6"/>
-      <c r="I114" s="7"/>
+      <c r="D114" s="8" t="n"/>
+      <c r="I114" s="7" t="n"/>
     </row>
     <row r="115">
-      <c r="D115" s="6"/>
-      <c r="I115" s="7"/>
+      <c r="D115" s="8" t="n"/>
+      <c r="I115" s="7" t="n"/>
     </row>
     <row r="116">
-      <c r="D116" s="6"/>
-      <c r="I116" s="7"/>
+      <c r="D116" s="8" t="n"/>
+      <c r="I116" s="7" t="n"/>
     </row>
     <row r="117">
-      <c r="D117" s="6"/>
-      <c r="I117" s="7"/>
+      <c r="D117" s="8" t="n"/>
+      <c r="I117" s="7" t="n"/>
     </row>
     <row r="118">
-      <c r="D118" s="6"/>
-      <c r="I118" s="7"/>
+      <c r="D118" s="8" t="n"/>
+      <c r="I118" s="7" t="n"/>
     </row>
     <row r="119">
-      <c r="D119" s="6"/>
-      <c r="I119" s="7"/>
+      <c r="D119" s="8" t="n"/>
+      <c r="I119" s="7" t="n"/>
     </row>
     <row r="120">
-      <c r="D120" s="6"/>
-      <c r="I120" s="7"/>
+      <c r="D120" s="8" t="n"/>
+      <c r="I120" s="7" t="n"/>
     </row>
     <row r="121">
-      <c r="D121" s="6"/>
-      <c r="I121" s="7"/>
+      <c r="D121" s="8" t="n"/>
+      <c r="I121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="D122" s="6"/>
-      <c r="I122" s="7"/>
+      <c r="D122" s="8" t="n"/>
+      <c r="I122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="D123" s="6"/>
-      <c r="I123" s="7"/>
+      <c r="D123" s="8" t="n"/>
+      <c r="I123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="D124" s="6"/>
-      <c r="I124" s="7"/>
+      <c r="D124" s="8" t="n"/>
+      <c r="I124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="D125" s="6"/>
-      <c r="I125" s="7"/>
+      <c r="D125" s="8" t="n"/>
+      <c r="I125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="D126" s="6"/>
-      <c r="I126" s="7"/>
+      <c r="D126" s="8" t="n"/>
+      <c r="I126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="D127" s="6"/>
-      <c r="I127" s="7"/>
+      <c r="D127" s="8" t="n"/>
+      <c r="I127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="D128" s="6"/>
-      <c r="I128" s="7"/>
+      <c r="D128" s="8" t="n"/>
+      <c r="I128" s="7" t="n"/>
     </row>
     <row r="129">
-      <c r="D129" s="6"/>
-      <c r="I129" s="7"/>
+      <c r="D129" s="8" t="n"/>
+      <c r="I129" s="7" t="n"/>
     </row>
     <row r="130">
-      <c r="D130" s="6"/>
-      <c r="I130" s="7"/>
+      <c r="D130" s="8" t="n"/>
+      <c r="I130" s="7" t="n"/>
     </row>
     <row r="131">
-      <c r="D131" s="6"/>
-      <c r="I131" s="7"/>
+      <c r="D131" s="8" t="n"/>
+      <c r="I131" s="7" t="n"/>
     </row>
     <row r="132">
-      <c r="D132" s="6"/>
-      <c r="I132" s="7"/>
+      <c r="D132" s="8" t="n"/>
+      <c r="I132" s="7" t="n"/>
     </row>
     <row r="133">
-      <c r="D133" s="6"/>
-      <c r="I133" s="7"/>
+      <c r="D133" s="8" t="n"/>
+      <c r="I133" s="7" t="n"/>
     </row>
     <row r="134">
-      <c r="D134" s="6"/>
-      <c r="I134" s="7"/>
+      <c r="D134" s="8" t="n"/>
+      <c r="I134" s="7" t="n"/>
     </row>
     <row r="135">
-      <c r="D135" s="6"/>
-      <c r="I135" s="7"/>
+      <c r="D135" s="8" t="n"/>
+      <c r="I135" s="7" t="n"/>
     </row>
     <row r="136">
-      <c r="D136" s="6"/>
-      <c r="I136" s="7"/>
+      <c r="D136" s="8" t="n"/>
+      <c r="I136" s="7" t="n"/>
     </row>
     <row r="137">
-      <c r="D137" s="6"/>
-      <c r="I137" s="7"/>
+      <c r="D137" s="8" t="n"/>
+      <c r="I137" s="7" t="n"/>
     </row>
     <row r="138">
-      <c r="D138" s="6"/>
-      <c r="I138" s="7"/>
+      <c r="D138" s="8" t="n"/>
+      <c r="I138" s="7" t="n"/>
     </row>
     <row r="139">
-      <c r="D139" s="6"/>
-      <c r="I139" s="7"/>
+      <c r="D139" s="8" t="n"/>
+      <c r="I139" s="7" t="n"/>
     </row>
     <row r="140">
-      <c r="D140" s="6"/>
-      <c r="I140" s="7"/>
+      <c r="D140" s="8" t="n"/>
+      <c r="I140" s="7" t="n"/>
     </row>
     <row r="141">
-      <c r="D141" s="6"/>
-      <c r="I141" s="7"/>
+      <c r="D141" s="8" t="n"/>
+      <c r="I141" s="7" t="n"/>
     </row>
     <row r="142">
-      <c r="D142" s="6"/>
-      <c r="I142" s="7"/>
+      <c r="D142" s="8" t="n"/>
+      <c r="I142" s="7" t="n"/>
     </row>
     <row r="143">
-      <c r="D143" s="6"/>
-      <c r="I143" s="7"/>
+      <c r="D143" s="8" t="n"/>
+      <c r="I143" s="7" t="n"/>
     </row>
     <row r="144">
-      <c r="D144" s="6"/>
-      <c r="I144" s="7"/>
+      <c r="D144" s="8" t="n"/>
+      <c r="I144" s="7" t="n"/>
     </row>
     <row r="145">
-      <c r="D145" s="6"/>
-      <c r="I145" s="7"/>
+      <c r="D145" s="8" t="n"/>
+      <c r="I145" s="7" t="n"/>
     </row>
     <row r="146">
-      <c r="D146" s="6"/>
-      <c r="I146" s="7"/>
+      <c r="D146" s="8" t="n"/>
+      <c r="I146" s="7" t="n"/>
     </row>
     <row r="147">
-      <c r="D147" s="6"/>
-      <c r="I147" s="7"/>
+      <c r="D147" s="8" t="n"/>
+      <c r="I147" s="7" t="n"/>
     </row>
     <row r="148">
-      <c r="D148" s="6"/>
-      <c r="I148" s="7"/>
+      <c r="D148" s="8" t="n"/>
+      <c r="I148" s="7" t="n"/>
     </row>
     <row r="149">
-      <c r="D149" s="6"/>
-      <c r="I149" s="7"/>
+      <c r="D149" s="8" t="n"/>
+      <c r="I149" s="7" t="n"/>
     </row>
     <row r="150">
-      <c r="D150" s="6"/>
-      <c r="I150" s="7"/>
+      <c r="D150" s="8" t="n"/>
+      <c r="I150" s="7" t="n"/>
     </row>
     <row r="151">
-      <c r="D151" s="6"/>
-      <c r="I151" s="7"/>
+      <c r="D151" s="8" t="n"/>
+      <c r="I151" s="7" t="n"/>
     </row>
     <row r="152">
-      <c r="D152" s="6"/>
-      <c r="I152" s="7"/>
+      <c r="D152" s="8" t="n"/>
+      <c r="I152" s="7" t="n"/>
     </row>
     <row r="153">
-      <c r="D153" s="6"/>
-      <c r="I153" s="7"/>
+      <c r="D153" s="8" t="n"/>
+      <c r="I153" s="7" t="n"/>
     </row>
     <row r="154">
-      <c r="D154" s="6"/>
-      <c r="I154" s="7"/>
+      <c r="D154" s="8" t="n"/>
+      <c r="I154" s="7" t="n"/>
     </row>
     <row r="155">
-      <c r="D155" s="6"/>
-      <c r="I155" s="7"/>
+      <c r="D155" s="8" t="n"/>
+      <c r="I155" s="7" t="n"/>
     </row>
     <row r="156">
-      <c r="D156" s="6"/>
-      <c r="I156" s="7"/>
+      <c r="D156" s="8" t="n"/>
+      <c r="I156" s="7" t="n"/>
     </row>
     <row r="157">
-      <c r="D157" s="6"/>
-      <c r="I157" s="7"/>
+      <c r="D157" s="8" t="n"/>
+      <c r="I157" s="7" t="n"/>
     </row>
     <row r="158">
-      <c r="D158" s="6"/>
-      <c r="I158" s="7"/>
+      <c r="D158" s="8" t="n"/>
+      <c r="I158" s="7" t="n"/>
     </row>
     <row r="159">
-      <c r="D159" s="6"/>
-      <c r="I159" s="7"/>
+      <c r="D159" s="8" t="n"/>
+      <c r="I159" s="7" t="n"/>
     </row>
     <row r="160">
-      <c r="D160" s="6"/>
-      <c r="I160" s="7"/>
+      <c r="D160" s="8" t="n"/>
+      <c r="I160" s="7" t="n"/>
     </row>
     <row r="161">
-      <c r="D161" s="6"/>
-      <c r="I161" s="7"/>
+      <c r="D161" s="8" t="n"/>
+      <c r="I161" s="7" t="n"/>
     </row>
     <row r="162">
-      <c r="D162" s="6"/>
-      <c r="I162" s="7"/>
+      <c r="D162" s="8" t="n"/>
+      <c r="I162" s="7" t="n"/>
     </row>
     <row r="163">
-      <c r="D163" s="6"/>
-      <c r="I163" s="7"/>
+      <c r="D163" s="8" t="n"/>
+      <c r="I163" s="7" t="n"/>
     </row>
     <row r="164">
-      <c r="D164" s="6"/>
-      <c r="I164" s="7"/>
+      <c r="D164" s="8" t="n"/>
+      <c r="I164" s="7" t="n"/>
     </row>
     <row r="165">
-      <c r="D165" s="6"/>
-      <c r="I165" s="7"/>
+      <c r="D165" s="8" t="n"/>
+      <c r="I165" s="7" t="n"/>
     </row>
     <row r="166">
-      <c r="D166" s="6"/>
-      <c r="I166" s="7"/>
+      <c r="D166" s="8" t="n"/>
+      <c r="I166" s="7" t="n"/>
     </row>
     <row r="167">
-      <c r="D167" s="6"/>
-      <c r="I167" s="7"/>
+      <c r="D167" s="8" t="n"/>
+      <c r="I167" s="7" t="n"/>
     </row>
     <row r="168">
-      <c r="D168" s="6"/>
-      <c r="I168" s="7"/>
+      <c r="D168" s="8" t="n"/>
+      <c r="I168" s="7" t="n"/>
     </row>
     <row r="169">
-      <c r="D169" s="6"/>
-      <c r="I169" s="7"/>
+      <c r="D169" s="8" t="n"/>
+      <c r="I169" s="7" t="n"/>
     </row>
     <row r="170">
-      <c r="D170" s="6"/>
-      <c r="I170" s="7"/>
+      <c r="D170" s="8" t="n"/>
+      <c r="I170" s="7" t="n"/>
     </row>
     <row r="171">
-      <c r="D171" s="6"/>
-      <c r="I171" s="7"/>
+      <c r="D171" s="8" t="n"/>
+      <c r="I171" s="7" t="n"/>
     </row>
     <row r="172">
-      <c r="D172" s="6"/>
-      <c r="I172" s="7"/>
+      <c r="D172" s="8" t="n"/>
+      <c r="I172" s="7" t="n"/>
     </row>
     <row r="173">
-      <c r="D173" s="6"/>
-      <c r="I173" s="7"/>
+      <c r="D173" s="8" t="n"/>
+      <c r="I173" s="7" t="n"/>
     </row>
     <row r="174">
-      <c r="D174" s="6"/>
-      <c r="I174" s="7"/>
+      <c r="D174" s="8" t="n"/>
+      <c r="I174" s="7" t="n"/>
     </row>
     <row r="175">
-      <c r="D175" s="6"/>
-      <c r="I175" s="7"/>
+      <c r="D175" s="8" t="n"/>
+      <c r="I175" s="7" t="n"/>
     </row>
     <row r="176">
-      <c r="D176" s="6"/>
-      <c r="I176" s="7"/>
+      <c r="D176" s="8" t="n"/>
+      <c r="I176" s="7" t="n"/>
     </row>
     <row r="177">
-      <c r="D177" s="6"/>
-      <c r="I177" s="7"/>
+      <c r="D177" s="8" t="n"/>
+      <c r="I177" s="7" t="n"/>
     </row>
     <row r="178">
-      <c r="D178" s="6"/>
-      <c r="I178" s="7"/>
+      <c r="D178" s="8" t="n"/>
+      <c r="I178" s="7" t="n"/>
     </row>
     <row r="179">
-      <c r="D179" s="6"/>
-      <c r="I179" s="7"/>
+      <c r="D179" s="8" t="n"/>
+      <c r="I179" s="7" t="n"/>
     </row>
     <row r="180">
-      <c r="D180" s="6"/>
-      <c r="I180" s="7"/>
+      <c r="D180" s="8" t="n"/>
+      <c r="I180" s="7" t="n"/>
     </row>
     <row r="181">
-      <c r="D181" s="6"/>
-      <c r="I181" s="7"/>
+      <c r="D181" s="8" t="n"/>
+      <c r="I181" s="7" t="n"/>
     </row>
     <row r="182">
-      <c r="D182" s="6"/>
-      <c r="I182" s="7"/>
+      <c r="D182" s="8" t="n"/>
+      <c r="I182" s="7" t="n"/>
     </row>
     <row r="183">
-      <c r="D183" s="6"/>
-      <c r="I183" s="7"/>
+      <c r="D183" s="8" t="n"/>
+      <c r="I183" s="7" t="n"/>
     </row>
     <row r="184">
-      <c r="D184" s="6"/>
-      <c r="I184" s="7"/>
+      <c r="D184" s="8" t="n"/>
+      <c r="I184" s="7" t="n"/>
     </row>
     <row r="185">
-      <c r="D185" s="6"/>
-      <c r="I185" s="7"/>
+      <c r="D185" s="8" t="n"/>
+      <c r="I185" s="7" t="n"/>
     </row>
     <row r="186">
-      <c r="D186" s="6"/>
-      <c r="I186" s="7"/>
+      <c r="D186" s="8" t="n"/>
+      <c r="I186" s="7" t="n"/>
     </row>
     <row r="187">
-      <c r="D187" s="6"/>
-      <c r="I187" s="7"/>
+      <c r="D187" s="8" t="n"/>
+      <c r="I187" s="7" t="n"/>
     </row>
     <row r="188">
-      <c r="D188" s="6"/>
-      <c r="I188" s="7"/>
+      <c r="D188" s="8" t="n"/>
+      <c r="I188" s="7" t="n"/>
     </row>
     <row r="189">
-      <c r="D189" s="6"/>
-      <c r="I189" s="7"/>
+      <c r="D189" s="8" t="n"/>
+      <c r="I189" s="7" t="n"/>
     </row>
     <row r="190">
-      <c r="D190" s="6"/>
-      <c r="I190" s="7"/>
+      <c r="D190" s="8" t="n"/>
+      <c r="I190" s="7" t="n"/>
     </row>
     <row r="191">
-      <c r="D191" s="6"/>
-      <c r="I191" s="7"/>
+      <c r="D191" s="8" t="n"/>
+      <c r="I191" s="7" t="n"/>
     </row>
     <row r="192">
-      <c r="D192" s="6"/>
-      <c r="I192" s="7"/>
+      <c r="D192" s="8" t="n"/>
+      <c r="I192" s="7" t="n"/>
     </row>
     <row r="193">
-      <c r="D193" s="6"/>
-      <c r="I193" s="7"/>
+      <c r="D193" s="8" t="n"/>
+      <c r="I193" s="7" t="n"/>
     </row>
     <row r="194">
-      <c r="D194" s="6"/>
-      <c r="I194" s="7"/>
+      <c r="D194" s="8" t="n"/>
+      <c r="I194" s="7" t="n"/>
     </row>
     <row r="195">
-      <c r="D195" s="6"/>
-      <c r="I195" s="7"/>
+      <c r="D195" s="8" t="n"/>
+      <c r="I195" s="7" t="n"/>
     </row>
     <row r="196">
-      <c r="D196" s="6"/>
-      <c r="I196" s="7"/>
+      <c r="D196" s="8" t="n"/>
+      <c r="I196" s="7" t="n"/>
     </row>
     <row r="197">
-      <c r="D197" s="6"/>
-      <c r="I197" s="7"/>
+      <c r="D197" s="8" t="n"/>
+      <c r="I197" s="7" t="n"/>
     </row>
     <row r="198">
-      <c r="D198" s="6"/>
-      <c r="I198" s="7"/>
+      <c r="D198" s="8" t="n"/>
+      <c r="I198" s="7" t="n"/>
     </row>
     <row r="199">
-      <c r="D199" s="6"/>
-      <c r="I199" s="7"/>
+      <c r="D199" s="8" t="n"/>
+      <c r="I199" s="7" t="n"/>
     </row>
     <row r="200">
-      <c r="D200" s="6"/>
-      <c r="I200" s="7"/>
+      <c r="D200" s="8" t="n"/>
+      <c r="I200" s="7" t="n"/>
     </row>
     <row r="201">
-      <c r="D201" s="6"/>
-      <c r="I201" s="7"/>
+      <c r="D201" s="8" t="n"/>
+      <c r="I201" s="7" t="n"/>
     </row>
     <row r="202">
-      <c r="D202" s="6"/>
-      <c r="I202" s="7"/>
+      <c r="D202" s="8" t="n"/>
+      <c r="I202" s="7" t="n"/>
     </row>
     <row r="203">
-      <c r="D203" s="6"/>
-      <c r="I203" s="7"/>
+      <c r="D203" s="8" t="n"/>
+      <c r="I203" s="7" t="n"/>
     </row>
     <row r="204">
-      <c r="D204" s="6"/>
-      <c r="I204" s="7"/>
+      <c r="D204" s="8" t="n"/>
+      <c r="I204" s="7" t="n"/>
     </row>
     <row r="205">
-      <c r="D205" s="6"/>
-      <c r="I205" s="7"/>
+      <c r="D205" s="8" t="n"/>
+      <c r="I205" s="7" t="n"/>
     </row>
     <row r="206">
-      <c r="D206" s="6"/>
-      <c r="I206" s="7"/>
+      <c r="D206" s="8" t="n"/>
+      <c r="I206" s="7" t="n"/>
     </row>
     <row r="207">
-      <c r="D207" s="6"/>
-      <c r="I207" s="7"/>
+      <c r="D207" s="8" t="n"/>
+      <c r="I207" s="7" t="n"/>
     </row>
     <row r="208">
-      <c r="D208" s="6"/>
-      <c r="I208" s="7"/>
+      <c r="D208" s="8" t="n"/>
+      <c r="I208" s="7" t="n"/>
     </row>
     <row r="209">
-      <c r="D209" s="6"/>
-      <c r="I209" s="7"/>
+      <c r="D209" s="8" t="n"/>
+      <c r="I209" s="7" t="n"/>
     </row>
     <row r="210">
-      <c r="D210" s="6"/>
-      <c r="I210" s="7"/>
+      <c r="D210" s="8" t="n"/>
+      <c r="I210" s="7" t="n"/>
     </row>
     <row r="211">
-      <c r="D211" s="6"/>
-      <c r="I211" s="7"/>
+      <c r="D211" s="8" t="n"/>
+      <c r="I211" s="7" t="n"/>
     </row>
     <row r="212">
-      <c r="D212" s="6"/>
-      <c r="I212" s="7"/>
+      <c r="D212" s="8" t="n"/>
+      <c r="I212" s="7" t="n"/>
     </row>
     <row r="213">
-      <c r="D213" s="6"/>
-      <c r="I213" s="7"/>
+      <c r="D213" s="8" t="n"/>
+      <c r="I213" s="7" t="n"/>
     </row>
     <row r="214">
-      <c r="D214" s="6"/>
-      <c r="I214" s="7"/>
+      <c r="D214" s="8" t="n"/>
+      <c r="I214" s="7" t="n"/>
     </row>
     <row r="215">
-      <c r="D215" s="6"/>
-      <c r="I215" s="7"/>
+      <c r="D215" s="8" t="n"/>
+      <c r="I215" s="7" t="n"/>
     </row>
     <row r="216">
-      <c r="D216" s="6"/>
-      <c r="I216" s="7"/>
+      <c r="D216" s="8" t="n"/>
+      <c r="I216" s="7" t="n"/>
     </row>
     <row r="217">
-      <c r="D217" s="6"/>
-      <c r="I217" s="7"/>
+      <c r="D217" s="8" t="n"/>
+      <c r="I217" s="7" t="n"/>
     </row>
     <row r="218">
-      <c r="D218" s="6"/>
-      <c r="I218" s="7"/>
+      <c r="D218" s="8" t="n"/>
+      <c r="I218" s="7" t="n"/>
     </row>
     <row r="219">
-      <c r="C219" s="9"/>
-      <c r="D219" s="6"/>
-      <c r="I219" s="7"/>
+      <c r="C219" s="9" t="n"/>
+      <c r="D219" s="8" t="n"/>
+      <c r="I219" s="7" t="n"/>
     </row>
     <row r="220">
-      <c r="D220" s="6"/>
-      <c r="I220" s="7"/>
+      <c r="D220" s="8" t="n"/>
+      <c r="I220" s="7" t="n"/>
     </row>
     <row r="221">
-      <c r="D221" s="6"/>
-      <c r="I221" s="7"/>
+      <c r="D221" s="8" t="n"/>
+      <c r="I221" s="7" t="n"/>
     </row>
     <row r="222">
-      <c r="D222" s="6"/>
-      <c r="I222" s="7"/>
+      <c r="D222" s="8" t="n"/>
+      <c r="I222" s="7" t="n"/>
     </row>
     <row r="223">
-      <c r="D223" s="6"/>
-      <c r="I223" s="7"/>
+      <c r="D223" s="8" t="n"/>
+      <c r="I223" s="7" t="n"/>
     </row>
     <row r="224">
-      <c r="D224" s="6"/>
-      <c r="I224" s="7"/>
+      <c r="D224" s="8" t="n"/>
+      <c r="I224" s="7" t="n"/>
     </row>
     <row r="225">
-      <c r="D225" s="6"/>
-      <c r="I225" s="7"/>
+      <c r="D225" s="8" t="n"/>
+      <c r="I225" s="7" t="n"/>
     </row>
     <row r="226">
-      <c r="D226" s="6"/>
-      <c r="I226" s="7"/>
+      <c r="D226" s="8" t="n"/>
+      <c r="I226" s="7" t="n"/>
     </row>
     <row r="227">
-      <c r="D227" s="6"/>
-      <c r="I227" s="7"/>
+      <c r="D227" s="8" t="n"/>
+      <c r="I227" s="7" t="n"/>
     </row>
     <row r="228">
-      <c r="D228" s="6"/>
-      <c r="I228" s="7"/>
+      <c r="D228" s="8" t="n"/>
+      <c r="I228" s="7" t="n"/>
     </row>
     <row r="229">
-      <c r="D229" s="6"/>
-      <c r="I229" s="7"/>
+      <c r="D229" s="8" t="n"/>
+      <c r="I229" s="7" t="n"/>
     </row>
     <row r="230">
-      <c r="D230" s="6"/>
-      <c r="I230" s="7"/>
+      <c r="D230" s="8" t="n"/>
+      <c r="I230" s="7" t="n"/>
     </row>
     <row r="231">
-      <c r="D231" s="6"/>
-      <c r="I231" s="7"/>
+      <c r="D231" s="8" t="n"/>
+      <c r="I231" s="7" t="n"/>
     </row>
     <row r="232">
-      <c r="D232" s="6"/>
-      <c r="I232" s="7"/>
+      <c r="D232" s="8" t="n"/>
+      <c r="I232" s="7" t="n"/>
     </row>
     <row r="233">
-      <c r="D233" s="6"/>
-      <c r="I233" s="7"/>
+      <c r="D233" s="8" t="n"/>
+      <c r="I233" s="7" t="n"/>
     </row>
     <row r="234">
-      <c r="D234" s="6"/>
-      <c r="I234" s="7"/>
+      <c r="D234" s="8" t="n"/>
+      <c r="I234" s="7" t="n"/>
     </row>
     <row r="235">
-      <c r="D235" s="6"/>
-      <c r="I235" s="7"/>
+      <c r="D235" s="8" t="n"/>
+      <c r="I235" s="7" t="n"/>
     </row>
     <row r="236">
-      <c r="D236" s="6"/>
-      <c r="I236" s="7"/>
+      <c r="D236" s="8" t="n"/>
+      <c r="I236" s="7" t="n"/>
     </row>
     <row r="237">
-      <c r="D237" s="6"/>
-      <c r="I237" s="7"/>
+      <c r="D237" s="8" t="n"/>
+      <c r="I237" s="7" t="n"/>
     </row>
     <row r="238">
-      <c r="D238" s="6"/>
-      <c r="I238" s="7"/>
+      <c r="D238" s="8" t="n"/>
+      <c r="I238" s="7" t="n"/>
     </row>
     <row r="239">
-      <c r="D239" s="6"/>
-      <c r="I239" s="7"/>
+      <c r="D239" s="8" t="n"/>
+      <c r="I239" s="7" t="n"/>
     </row>
     <row r="240">
-      <c r="D240" s="6"/>
-      <c r="I240" s="7"/>
+      <c r="D240" s="8" t="n"/>
+      <c r="I240" s="7" t="n"/>
     </row>
     <row r="241">
-      <c r="D241" s="6"/>
-      <c r="G241" s="9"/>
-      <c r="I241" s="7"/>
+      <c r="D241" s="8" t="n"/>
+      <c r="G241" s="9" t="n"/>
+      <c r="I241" s="7" t="n"/>
     </row>
     <row r="242">
-      <c r="D242" s="6"/>
-      <c r="I242" s="7"/>
+      <c r="D242" s="8" t="n"/>
+      <c r="I242" s="7" t="n"/>
     </row>
     <row r="243">
-      <c r="D243" s="6"/>
-      <c r="I243" s="7"/>
+      <c r="D243" s="8" t="n"/>
+      <c r="I243" s="7" t="n"/>
     </row>
     <row r="244">
-      <c r="D244" s="6"/>
-      <c r="I244" s="7"/>
+      <c r="D244" s="8" t="n"/>
+      <c r="I244" s="7" t="n"/>
     </row>
     <row r="245">
-      <c r="D245" s="6"/>
-      <c r="I245" s="7"/>
+      <c r="D245" s="8" t="n"/>
+      <c r="I245" s="7" t="n"/>
     </row>
     <row r="246">
-      <c r="D246" s="6"/>
-      <c r="I246" s="7"/>
+      <c r="D246" s="8" t="n"/>
+      <c r="I246" s="7" t="n"/>
     </row>
     <row r="247">
-      <c r="D247" s="6"/>
-      <c r="I247" s="7"/>
+      <c r="D247" s="8" t="n"/>
+      <c r="I247" s="7" t="n"/>
     </row>
     <row r="248">
-      <c r="D248" s="6"/>
-      <c r="I248" s="7"/>
+      <c r="D248" s="8" t="n"/>
+      <c r="I248" s="7" t="n"/>
     </row>
     <row r="249">
-      <c r="D249" s="6"/>
-      <c r="I249" s="7"/>
+      <c r="D249" s="8" t="n"/>
+      <c r="I249" s="7" t="n"/>
     </row>
     <row r="250">
-      <c r="D250" s="6"/>
-      <c r="I250" s="7"/>
+      <c r="D250" s="8" t="n"/>
+      <c r="I250" s="7" t="n"/>
     </row>
     <row r="251">
-      <c r="D251" s="6"/>
-      <c r="I251" s="7"/>
+      <c r="D251" s="8" t="n"/>
+      <c r="I251" s="7" t="n"/>
     </row>
     <row r="252">
-      <c r="D252" s="6"/>
-      <c r="I252" s="7"/>
+      <c r="D252" s="8" t="n"/>
+      <c r="I252" s="7" t="n"/>
     </row>
     <row r="253">
-      <c r="D253" s="6"/>
-      <c r="I253" s="7"/>
+      <c r="D253" s="8" t="n"/>
+      <c r="I253" s="7" t="n"/>
     </row>
     <row r="254">
-      <c r="D254" s="6"/>
-      <c r="I254" s="7"/>
+      <c r="D254" s="8" t="n"/>
+      <c r="I254" s="7" t="n"/>
     </row>
     <row r="255">
-      <c r="C255" s="10"/>
-      <c r="D255" s="6"/>
-      <c r="I255" s="7"/>
+      <c r="C255" s="10" t="n"/>
+      <c r="D255" s="8" t="n"/>
+      <c r="I255" s="7" t="n"/>
     </row>
     <row r="256">
-      <c r="D256" s="6"/>
-      <c r="I256" s="7"/>
+      <c r="D256" s="8" t="n"/>
+      <c r="I256" s="7" t="n"/>
     </row>
     <row r="257">
-      <c r="D257" s="6"/>
+      <c r="D257" s="8" t="n"/>
     </row>
     <row r="258">
-      <c r="D258" s="6"/>
-      <c r="E258" s="5"/>
-      <c r="I258" s="7"/>
+      <c r="D258" s="8" t="n"/>
+      <c r="E258" s="5" t="n"/>
+      <c r="I258" s="7" t="n"/>
     </row>
     <row r="259">
-      <c r="D259" s="6"/>
-      <c r="I259" s="7"/>
+      <c r="D259" s="8" t="n"/>
+      <c r="I259" s="7" t="n"/>
     </row>
     <row r="260">
-      <c r="D260" s="6"/>
-      <c r="I260" s="7"/>
+      <c r="D260" s="8" t="n"/>
+      <c r="I260" s="7" t="n"/>
     </row>
     <row r="261">
-      <c r="D261" s="6"/>
-      <c r="I261" s="7"/>
+      <c r="D261" s="8" t="n"/>
+      <c r="I261" s="7" t="n"/>
     </row>
     <row r="262">
-      <c r="D262" s="6"/>
-      <c r="I262" s="7"/>
+      <c r="D262" s="8" t="n"/>
+      <c r="I262" s="7" t="n"/>
     </row>
     <row r="263">
-      <c r="D263" s="6"/>
-      <c r="I263" s="7"/>
+      <c r="D263" s="8" t="n"/>
+      <c r="I263" s="7" t="n"/>
     </row>
     <row r="264">
-      <c r="D264" s="6"/>
-      <c r="I264" s="7"/>
+      <c r="D264" s="8" t="n"/>
+      <c r="I264" s="7" t="n"/>
     </row>
     <row r="265">
-      <c r="D265" s="6"/>
-      <c r="I265" s="7"/>
+      <c r="D265" s="8" t="n"/>
+      <c r="I265" s="7" t="n"/>
     </row>
     <row r="266">
-      <c r="D266" s="6"/>
-      <c r="I266" s="7"/>
+      <c r="D266" s="8" t="n"/>
+      <c r="I266" s="7" t="n"/>
     </row>
     <row r="267">
-      <c r="D267" s="6"/>
-      <c r="I267" s="7"/>
+      <c r="D267" s="8" t="n"/>
+      <c r="I267" s="7" t="n"/>
     </row>
     <row r="268">
-      <c r="D268" s="6"/>
-      <c r="F268" s="9"/>
-      <c r="I268" s="7"/>
+      <c r="D268" s="8" t="n"/>
+      <c r="F268" s="9" t="n"/>
+      <c r="I268" s="7" t="n"/>
     </row>
     <row r="269">
-      <c r="D269" s="6"/>
-      <c r="I269" s="7"/>
+      <c r="D269" s="8" t="n"/>
+      <c r="I269" s="7" t="n"/>
     </row>
     <row r="270">
-      <c r="D270" s="6"/>
-      <c r="I270" s="7"/>
+      <c r="D270" s="8" t="n"/>
+      <c r="I270" s="7" t="n"/>
     </row>
     <row r="271">
-      <c r="D271" s="6"/>
-      <c r="I271" s="7"/>
+      <c r="D271" s="8" t="n"/>
+      <c r="I271" s="7" t="n"/>
     </row>
     <row r="272">
-      <c r="D272" s="6"/>
-      <c r="I272" s="7"/>
+      <c r="D272" s="8" t="n"/>
+      <c r="I272" s="7" t="n"/>
     </row>
     <row r="273">
-      <c r="D273" s="6"/>
-      <c r="I273" s="7"/>
+      <c r="D273" s="8" t="n"/>
+      <c r="I273" s="7" t="n"/>
     </row>
     <row r="274">
-      <c r="D274" s="6"/>
-      <c r="I274" s="7"/>
+      <c r="D274" s="8" t="n"/>
+      <c r="I274" s="7" t="n"/>
     </row>
     <row r="275">
-      <c r="D275" s="6"/>
-      <c r="I275" s="7"/>
+      <c r="D275" s="8" t="n"/>
+      <c r="I275" s="7" t="n"/>
     </row>
     <row r="276">
-      <c r="D276" s="6"/>
-      <c r="I276" s="7"/>
+      <c r="D276" s="8" t="n"/>
+      <c r="I276" s="7" t="n"/>
     </row>
     <row r="277">
-      <c r="D277" s="6"/>
-      <c r="I277" s="7"/>
+      <c r="D277" s="8" t="n"/>
+      <c r="I277" s="7" t="n"/>
     </row>
     <row r="278">
-      <c r="D278" s="6"/>
-      <c r="I278" s="7"/>
+      <c r="D278" s="8" t="n"/>
+      <c r="I278" s="7" t="n"/>
     </row>
     <row r="279">
-      <c r="D279" s="6"/>
-      <c r="I279" s="7"/>
+      <c r="D279" s="8" t="n"/>
+      <c r="I279" s="7" t="n"/>
     </row>
     <row r="280">
-      <c r="D280" s="6"/>
-      <c r="I280" s="7"/>
+      <c r="D280" s="8" t="n"/>
+      <c r="I280" s="7" t="n"/>
     </row>
     <row r="281">
-      <c r="D281" s="6"/>
-      <c r="I281" s="7"/>
+      <c r="D281" s="8" t="n"/>
+      <c r="I281" s="7" t="n"/>
     </row>
     <row r="282">
-      <c r="D282" s="6"/>
-      <c r="I282" s="7"/>
+      <c r="D282" s="8" t="n"/>
+      <c r="I282" s="7" t="n"/>
     </row>
     <row r="283">
-      <c r="D283" s="6"/>
-      <c r="I283" s="7"/>
+      <c r="D283" s="8" t="n"/>
+      <c r="I283" s="7" t="n"/>
     </row>
     <row r="284">
-      <c r="D284" s="6"/>
-      <c r="I284" s="7"/>
+      <c r="D284" s="8" t="n"/>
+      <c r="I284" s="7" t="n"/>
     </row>
     <row r="285">
-      <c r="D285" s="6"/>
-      <c r="I285" s="7"/>
+      <c r="D285" s="8" t="n"/>
+      <c r="I285" s="7" t="n"/>
     </row>
     <row r="286">
-      <c r="D286" s="6"/>
-      <c r="I286" s="7"/>
+      <c r="D286" s="8" t="n"/>
+      <c r="I286" s="7" t="n"/>
     </row>
     <row r="287">
-      <c r="D287" s="6"/>
-      <c r="I287" s="7"/>
+      <c r="D287" s="8" t="n"/>
+      <c r="I287" s="7" t="n"/>
     </row>
     <row r="288">
-      <c r="D288" s="6"/>
-      <c r="I288" s="7"/>
+      <c r="D288" s="8" t="n"/>
+      <c r="I288" s="7" t="n"/>
     </row>
     <row r="289">
-      <c r="D289" s="6"/>
-      <c r="I289" s="7"/>
+      <c r="D289" s="8" t="n"/>
+      <c r="I289" s="7" t="n"/>
     </row>
     <row r="290">
-      <c r="D290" s="6"/>
-      <c r="I290" s="7"/>
+      <c r="D290" s="8" t="n"/>
+      <c r="I290" s="7" t="n"/>
     </row>
     <row r="291">
-      <c r="D291" s="6"/>
-      <c r="I291" s="7"/>
+      <c r="D291" s="8" t="n"/>
+      <c r="I291" s="7" t="n"/>
     </row>
     <row r="292">
-      <c r="B292" s="11"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="13"/>
-      <c r="E292" s="14"/>
-      <c r="F292" s="14"/>
-      <c r="G292" s="14"/>
-      <c r="H292" s="15"/>
-      <c r="I292" s="16"/>
-      <c r="J292" s="14"/>
-      <c r="K292" s="14"/>
-      <c r="L292" s="12"/>
-      <c r="M292" s="14"/>
-      <c r="N292" s="14"/>
-      <c r="O292" s="14"/>
-      <c r="P292" s="14"/>
-      <c r="Q292" s="14"/>
-      <c r="R292" s="14"/>
-      <c r="S292" s="14"/>
-      <c r="T292" s="14"/>
-      <c r="U292" s="14"/>
-      <c r="V292" s="14"/>
-      <c r="W292" s="14"/>
-      <c r="X292" s="14"/>
-      <c r="Y292" s="14"/>
-      <c r="Z292" s="14"/>
-      <c r="AA292" s="14"/>
-      <c r="AB292" s="14"/>
-      <c r="AC292" s="14"/>
-      <c r="AD292" s="14"/>
+      <c r="B292" s="11" t="n"/>
+      <c r="C292" s="14" t="n"/>
+      <c r="D292" s="18" t="n"/>
+      <c r="E292" s="14" t="n"/>
+      <c r="F292" s="14" t="n"/>
+      <c r="G292" s="14" t="n"/>
+      <c r="H292" s="15" t="n"/>
+      <c r="I292" s="17" t="n"/>
+      <c r="J292" s="14" t="n"/>
+      <c r="K292" s="14" t="n"/>
+      <c r="L292" s="14" t="n"/>
+      <c r="M292" s="14" t="n"/>
+      <c r="N292" s="14" t="n"/>
+      <c r="O292" s="14" t="n"/>
+      <c r="P292" s="14" t="n"/>
+      <c r="Q292" s="14" t="n"/>
+      <c r="R292" s="14" t="n"/>
+      <c r="S292" s="14" t="n"/>
+      <c r="T292" s="14" t="n"/>
+      <c r="U292" s="14" t="n"/>
+      <c r="V292" s="14" t="n"/>
+      <c r="W292" s="14" t="n"/>
+      <c r="X292" s="14" t="n"/>
+      <c r="Y292" s="14" t="n"/>
+      <c r="Z292" s="14" t="n"/>
+      <c r="AA292" s="14" t="n"/>
+      <c r="AB292" s="14" t="n"/>
+      <c r="AC292" s="14" t="n"/>
+      <c r="AD292" s="14" t="n"/>
     </row>
     <row r="293">
-      <c r="D293" s="6"/>
-      <c r="I293" s="17"/>
-      <c r="J293" s="14"/>
+      <c r="D293" s="8" t="n"/>
+      <c r="I293" s="17" t="n"/>
+      <c r="J293" s="14" t="n"/>
     </row>
     <row r="294">
-      <c r="D294" s="6"/>
-      <c r="I294" s="17"/>
+      <c r="D294" s="8" t="n"/>
+      <c r="I294" s="17" t="n"/>
     </row>
     <row r="295">
-      <c r="D295" s="6"/>
-      <c r="I295" s="17"/>
+      <c r="D295" s="8" t="n"/>
+      <c r="I295" s="17" t="n"/>
     </row>
     <row r="296">
-      <c r="D296" s="6"/>
-      <c r="I296" s="17"/>
+      <c r="D296" s="8" t="n"/>
+      <c r="I296" s="17" t="n"/>
     </row>
     <row r="297">
-      <c r="D297" s="6"/>
-      <c r="I297" s="17"/>
+      <c r="D297" s="8" t="n"/>
+      <c r="I297" s="17" t="n"/>
     </row>
     <row r="298">
-      <c r="B298" s="14"/>
-      <c r="C298" s="13"/>
-      <c r="D298" s="18"/>
-      <c r="I298" s="17"/>
+      <c r="B298" s="14" t="n"/>
+      <c r="C298" s="18" t="n"/>
+      <c r="D298" s="18" t="n"/>
+      <c r="I298" s="17" t="n"/>
     </row>
     <row r="299">
-      <c r="D299" s="6"/>
-      <c r="I299" s="17"/>
+      <c r="D299" s="8" t="n"/>
+      <c r="I299" s="17" t="n"/>
     </row>
     <row r="300">
-      <c r="D300" s="6"/>
-      <c r="I300" s="17"/>
+      <c r="D300" s="8" t="n"/>
+      <c r="I300" s="17" t="n"/>
     </row>
     <row r="301">
-      <c r="D301" s="6"/>
-      <c r="I301" s="17"/>
+      <c r="D301" s="8" t="n"/>
+      <c r="I301" s="17" t="n"/>
     </row>
     <row r="302">
-      <c r="D302" s="6"/>
-      <c r="I302" s="17"/>
+      <c r="D302" s="8" t="n"/>
+      <c r="I302" s="17" t="n"/>
     </row>
     <row r="303">
-      <c r="D303" s="6"/>
-      <c r="I303" s="17"/>
+      <c r="D303" s="8" t="n"/>
+      <c r="I303" s="17" t="n"/>
     </row>
     <row r="304">
-      <c r="D304" s="6"/>
-      <c r="I304" s="17"/>
+      <c r="D304" s="8" t="n"/>
+      <c r="I304" s="17" t="n"/>
     </row>
     <row r="305">
-      <c r="D305" s="6"/>
-      <c r="I305" s="17"/>
-      <c r="J305" s="14"/>
+      <c r="D305" s="8" t="n"/>
+      <c r="I305" s="17" t="n"/>
+      <c r="J305" s="14" t="n"/>
     </row>
     <row r="306">
-      <c r="D306" s="6"/>
-      <c r="I306" s="17"/>
-      <c r="J306" s="14"/>
+      <c r="D306" s="8" t="n"/>
+      <c r="I306" s="17" t="n"/>
+      <c r="J306" s="14" t="n"/>
     </row>
     <row r="307">
-      <c r="D307" s="6"/>
-      <c r="H307" s="19"/>
-      <c r="I307" s="17"/>
+      <c r="D307" s="8" t="n"/>
+      <c r="H307" s="20" t="n"/>
+      <c r="I307" s="17" t="n"/>
     </row>
     <row r="308">
-      <c r="D308" s="6"/>
-      <c r="H308" s="19"/>
-      <c r="I308" s="17"/>
+      <c r="D308" s="8" t="n"/>
+      <c r="H308" s="20" t="n"/>
+      <c r="I308" s="17" t="n"/>
     </row>
     <row r="309">
-      <c r="D309" s="6"/>
-      <c r="H309" s="19"/>
-      <c r="I309" s="17"/>
-      <c r="J309" s="14"/>
+      <c r="D309" s="8" t="n"/>
+      <c r="H309" s="20" t="n"/>
+      <c r="I309" s="17" t="n"/>
+      <c r="J309" s="14" t="n"/>
     </row>
     <row r="310">
-      <c r="D310" s="6"/>
-      <c r="H310" s="19"/>
-      <c r="I310" s="17"/>
+      <c r="D310" s="8" t="n"/>
+      <c r="H310" s="20" t="n"/>
+      <c r="I310" s="17" t="n"/>
     </row>
     <row r="311">
-      <c r="D311" s="6"/>
-      <c r="H311" s="19"/>
-      <c r="I311" s="17"/>
+      <c r="D311" s="8" t="n"/>
+      <c r="H311" s="20" t="n"/>
+      <c r="I311" s="17" t="n"/>
     </row>
     <row r="312">
-      <c r="D312" s="6"/>
-      <c r="H312" s="19"/>
-      <c r="I312" s="17"/>
-      <c r="J312" s="14"/>
+      <c r="D312" s="8" t="n"/>
+      <c r="H312" s="20" t="n"/>
+      <c r="I312" s="17" t="n"/>
+      <c r="J312" s="14" t="n"/>
     </row>
     <row r="313">
-      <c r="D313" s="6"/>
-      <c r="H313" s="19"/>
-      <c r="I313" s="17"/>
-      <c r="J313" s="14"/>
+      <c r="D313" s="8" t="n"/>
+      <c r="H313" s="20" t="n"/>
+      <c r="I313" s="17" t="n"/>
+      <c r="J313" s="14" t="n"/>
     </row>
     <row r="314">
-      <c r="D314" s="6"/>
-      <c r="H314" s="19"/>
-      <c r="I314" s="17"/>
-      <c r="J314" s="14"/>
+      <c r="D314" s="8" t="n"/>
+      <c r="H314" s="20" t="n"/>
+      <c r="I314" s="17" t="n"/>
+      <c r="J314" s="14" t="n"/>
     </row>
     <row r="315">
-      <c r="D315" s="6"/>
-      <c r="H315" s="19"/>
-      <c r="I315" s="17"/>
-      <c r="J315" s="14"/>
+      <c r="D315" s="8" t="n"/>
+      <c r="H315" s="20" t="n"/>
+      <c r="I315" s="17" t="n"/>
+      <c r="J315" s="14" t="n"/>
     </row>
     <row r="316">
-      <c r="D316" s="6"/>
-      <c r="H316" s="19"/>
-      <c r="I316" s="17"/>
-      <c r="J316" s="14"/>
+      <c r="D316" s="8" t="n"/>
+      <c r="H316" s="20" t="n"/>
+      <c r="I316" s="17" t="n"/>
+      <c r="J316" s="14" t="n"/>
     </row>
     <row r="317">
-      <c r="D317" s="6"/>
-      <c r="H317" s="19"/>
-      <c r="I317" s="17"/>
-      <c r="J317" s="14"/>
+      <c r="D317" s="8" t="n"/>
+      <c r="H317" s="20" t="n"/>
+      <c r="I317" s="17" t="n"/>
+      <c r="J317" s="14" t="n"/>
     </row>
     <row r="318">
-      <c r="D318" s="6"/>
-      <c r="H318" s="19"/>
-      <c r="I318" s="17"/>
-      <c r="J318" s="14"/>
+      <c r="D318" s="8" t="n"/>
+      <c r="H318" s="20" t="n"/>
+      <c r="I318" s="17" t="n"/>
+      <c r="J318" s="14" t="n"/>
     </row>
     <row r="319">
-      <c r="D319" s="6"/>
-      <c r="H319" s="19"/>
-      <c r="I319" s="17"/>
-      <c r="J319" s="14"/>
+      <c r="D319" s="8" t="n"/>
+      <c r="H319" s="20" t="n"/>
+      <c r="I319" s="17" t="n"/>
+      <c r="J319" s="14" t="n"/>
     </row>
     <row r="320">
-      <c r="D320" s="6"/>
-      <c r="H320" s="19"/>
-      <c r="I320" s="17"/>
-      <c r="J320" s="14"/>
+      <c r="D320" s="8" t="n"/>
+      <c r="H320" s="20" t="n"/>
+      <c r="I320" s="17" t="n"/>
+      <c r="J320" s="14" t="n"/>
     </row>
     <row r="321">
-      <c r="D321" s="6"/>
-      <c r="H321" s="20"/>
-      <c r="I321" s="17"/>
+      <c r="D321" s="8" t="n"/>
+      <c r="H321" s="20" t="n"/>
+      <c r="I321" s="17" t="n"/>
     </row>
     <row r="322">
-      <c r="D322" s="6"/>
-      <c r="H322" s="21"/>
-      <c r="I322" s="17"/>
+      <c r="D322" s="8" t="n"/>
+      <c r="H322" s="21" t="n"/>
+      <c r="I322" s="17" t="n"/>
     </row>
     <row r="323">
-      <c r="D323" s="6"/>
-      <c r="H323" s="21"/>
-      <c r="I323" s="17"/>
+      <c r="D323" s="8" t="n"/>
+      <c r="H323" s="21" t="n"/>
+      <c r="I323" s="17" t="n"/>
     </row>
     <row r="324">
-      <c r="D324" s="6"/>
-      <c r="I324" s="17"/>
+      <c r="D324" s="8" t="n"/>
+      <c r="I324" s="17" t="n"/>
     </row>
     <row r="325">
-      <c r="D325" s="6"/>
-      <c r="I325" s="17"/>
+      <c r="D325" s="8" t="n"/>
+      <c r="I325" s="17" t="n"/>
     </row>
     <row r="326">
-      <c r="D326" s="6"/>
-      <c r="I326" s="17"/>
+      <c r="D326" s="8" t="n"/>
+      <c r="I326" s="17" t="n"/>
     </row>
     <row r="327">
-      <c r="D327" s="6"/>
-      <c r="I327" s="17"/>
+      <c r="D327" s="8" t="n"/>
+      <c r="I327" s="17" t="n"/>
     </row>
     <row r="328">
-      <c r="D328" s="6"/>
-      <c r="H328" s="19"/>
-      <c r="I328" s="17"/>
+      <c r="D328" s="8" t="n"/>
+      <c r="H328" s="20" t="n"/>
+      <c r="I328" s="17" t="n"/>
     </row>
     <row r="329">
-      <c r="D329" s="6"/>
-      <c r="I329" s="17"/>
+      <c r="D329" s="8" t="n"/>
+      <c r="I329" s="17" t="n"/>
     </row>
     <row r="330">
-      <c r="D330" s="6"/>
-      <c r="H330" s="19"/>
-      <c r="I330" s="17"/>
+      <c r="D330" s="8" t="n"/>
+      <c r="H330" s="20" t="n"/>
+      <c r="I330" s="17" t="n"/>
     </row>
     <row r="331">
-      <c r="D331" s="6"/>
-      <c r="H331" s="19"/>
-      <c r="I331" s="17"/>
+      <c r="D331" s="8" t="n"/>
+      <c r="H331" s="20" t="n"/>
+      <c r="I331" s="17" t="n"/>
     </row>
     <row r="332">
-      <c r="D332" s="6"/>
-      <c r="I332" s="17"/>
+      <c r="D332" s="8" t="n"/>
+      <c r="I332" s="17" t="n"/>
     </row>
     <row r="333">
-      <c r="D333" s="6"/>
-      <c r="I333" s="17"/>
+      <c r="D333" s="8" t="n"/>
+      <c r="I333" s="17" t="n"/>
     </row>
     <row r="334">
-      <c r="D334" s="6"/>
-      <c r="H334" s="19"/>
-      <c r="I334" s="17"/>
+      <c r="D334" s="8" t="n"/>
+      <c r="H334" s="20" t="n"/>
+      <c r="I334" s="17" t="n"/>
     </row>
     <row r="335">
-      <c r="D335" s="6"/>
-      <c r="H335" s="19"/>
-      <c r="I335" s="17"/>
+      <c r="D335" s="8" t="n"/>
+      <c r="H335" s="20" t="n"/>
+      <c r="I335" s="17" t="n"/>
     </row>
     <row r="336">
-      <c r="D336" s="6"/>
-      <c r="I336" s="17"/>
+      <c r="D336" s="8" t="n"/>
+      <c r="I336" s="17" t="n"/>
     </row>
     <row r="337">
-      <c r="D337" s="8"/>
-      <c r="I337" s="7"/>
+      <c r="D337" s="8" t="n"/>
+      <c r="I337" s="7" t="n"/>
     </row>
     <row r="338">
-      <c r="B338" s="14"/>
-      <c r="D338" s="13"/>
-      <c r="E338" s="14"/>
-      <c r="F338" s="14"/>
-      <c r="G338" s="14"/>
-      <c r="H338" s="15"/>
-      <c r="I338" s="22"/>
-      <c r="J338" s="14"/>
-      <c r="K338" s="14"/>
-      <c r="L338" s="14"/>
-      <c r="N338" s="14"/>
-      <c r="O338" s="14"/>
-      <c r="P338" s="14"/>
-      <c r="Q338" s="14"/>
-      <c r="R338" s="14"/>
-      <c r="S338" s="14"/>
-      <c r="T338" s="14"/>
-      <c r="U338" s="14"/>
-      <c r="V338" s="14"/>
-      <c r="W338" s="14"/>
-      <c r="X338" s="14"/>
-      <c r="Y338" s="14"/>
-      <c r="Z338" s="14"/>
-      <c r="AA338" s="14"/>
-      <c r="AB338" s="14"/>
-      <c r="AC338" s="14"/>
-      <c r="AD338" s="14"/>
+      <c r="B338" s="14" t="n"/>
+      <c r="D338" s="18" t="n"/>
+      <c r="E338" s="14" t="n"/>
+      <c r="F338" s="14" t="n"/>
+      <c r="G338" s="14" t="n"/>
+      <c r="H338" s="15" t="n"/>
+      <c r="I338" s="22" t="n"/>
+      <c r="J338" s="14" t="n"/>
+      <c r="K338" s="14" t="n"/>
+      <c r="L338" s="14" t="n"/>
+      <c r="N338" s="14" t="n"/>
+      <c r="O338" s="14" t="n"/>
+      <c r="P338" s="14" t="n"/>
+      <c r="Q338" s="14" t="n"/>
+      <c r="R338" s="14" t="n"/>
+      <c r="S338" s="14" t="n"/>
+      <c r="T338" s="14" t="n"/>
+      <c r="U338" s="14" t="n"/>
+      <c r="V338" s="14" t="n"/>
+      <c r="W338" s="14" t="n"/>
+      <c r="X338" s="14" t="n"/>
+      <c r="Y338" s="14" t="n"/>
+      <c r="Z338" s="14" t="n"/>
+      <c r="AA338" s="14" t="n"/>
+      <c r="AB338" s="14" t="n"/>
+      <c r="AC338" s="14" t="n"/>
+      <c r="AD338" s="14" t="n"/>
     </row>
     <row r="339">
-      <c r="D339" s="8"/>
-      <c r="I339" s="23"/>
+      <c r="D339" s="8" t="n"/>
+      <c r="I339" s="23" t="n"/>
     </row>
     <row r="340">
-      <c r="D340" s="6"/>
+      <c r="D340" s="8" t="n"/>
     </row>
     <row r="341">
-      <c r="D341" s="6"/>
+      <c r="D341" s="8" t="n"/>
     </row>
     <row r="342">
-      <c r="D342" s="6"/>
+      <c r="D342" s="8" t="n"/>
     </row>
     <row r="343">
-      <c r="D343" s="6"/>
+      <c r="D343" s="8" t="n"/>
     </row>
     <row r="344">
-      <c r="D344" s="6"/>
+      <c r="D344" s="8" t="n"/>
     </row>
     <row r="345">
-      <c r="D345" s="6"/>
+      <c r="D345" s="8" t="n"/>
     </row>
     <row r="346">
-      <c r="D346" s="6"/>
+      <c r="D346" s="8" t="n"/>
     </row>
     <row r="347">
-      <c r="D347" s="6"/>
+      <c r="D347" s="8" t="n"/>
     </row>
     <row r="348">
-      <c r="D348" s="24"/>
+      <c r="D348" s="24" t="n"/>
     </row>
     <row r="349">
-      <c r="D349" s="24"/>
-      <c r="F349" s="25"/>
-      <c r="T349" s="25"/>
+      <c r="D349" s="24" t="n"/>
+      <c r="F349" s="25" t="n"/>
+      <c r="T349" s="25" t="n"/>
     </row>
     <row r="350">
-      <c r="D350" s="24"/>
-      <c r="P350" s="25"/>
+      <c r="D350" s="24" t="n"/>
+      <c r="P350" s="25" t="n"/>
     </row>
     <row r="351">
-      <c r="D351" s="24"/>
-      <c r="P351" s="25"/>
+      <c r="D351" s="24" t="n"/>
+      <c r="P351" s="25" t="n"/>
     </row>
     <row r="352">
-      <c r="D352" s="24"/>
-      <c r="H352" s="25"/>
-      <c r="P352" s="25"/>
+      <c r="D352" s="24" t="n"/>
+      <c r="H352" s="25" t="n"/>
+      <c r="P352" s="25" t="n"/>
     </row>
     <row r="353">
-      <c r="D353" s="24"/>
-      <c r="P353" s="25"/>
+      <c r="D353" s="24" t="n"/>
+      <c r="P353" s="25" t="n"/>
     </row>
     <row r="354">
-      <c r="D354" s="24"/>
-      <c r="P354" s="25"/>
+      <c r="D354" s="24" t="n"/>
+      <c r="P354" s="25" t="n"/>
     </row>
     <row r="355">
-      <c r="D355" s="24"/>
-      <c r="F355" s="25"/>
-      <c r="H355" s="25"/>
+      <c r="D355" s="24" t="n"/>
+      <c r="F355" s="25" t="n"/>
+      <c r="H355" s="25" t="n"/>
     </row>
     <row r="356">
-      <c r="D356" s="24"/>
-      <c r="P356" s="25"/>
+      <c r="D356" s="24" t="n"/>
+      <c r="P356" s="25" t="n"/>
     </row>
     <row r="357">
-      <c r="D357" s="24"/>
-      <c r="P357" s="25"/>
+      <c r="D357" s="24" t="n"/>
+      <c r="P357" s="25" t="n"/>
     </row>
     <row r="358">
-      <c r="D358" s="24"/>
+      <c r="D358" s="24" t="n"/>
     </row>
     <row r="359">
-      <c r="D359" s="24"/>
-      <c r="F359" s="25"/>
+      <c r="D359" s="24" t="n"/>
+      <c r="F359" s="25" t="n"/>
     </row>
     <row r="360">
-      <c r="D360" s="24"/>
-      <c r="F360" s="25"/>
-      <c r="G360" s="25"/>
+      <c r="D360" s="24" t="n"/>
+      <c r="F360" s="25" t="n"/>
+      <c r="G360" s="25" t="n"/>
     </row>
     <row r="361">
-      <c r="D361" s="24"/>
-      <c r="F361" s="25"/>
-      <c r="T361" s="25"/>
+      <c r="D361" s="24" t="n"/>
+      <c r="F361" s="25" t="n"/>
+      <c r="T361" s="25" t="n"/>
     </row>
     <row r="362">
-      <c r="D362" s="24"/>
-      <c r="H362" s="25"/>
-      <c r="T362" s="25"/>
+      <c r="D362" s="24" t="n"/>
+      <c r="H362" s="25" t="n"/>
+      <c r="T362" s="25" t="n"/>
     </row>
     <row r="363">
-      <c r="A363" s="25"/>
-      <c r="C363" s="25"/>
-      <c r="D363" s="24"/>
-      <c r="T363" s="25"/>
+      <c r="A363" s="25" t="n"/>
+      <c r="C363" s="25" t="n"/>
+      <c r="D363" s="24" t="n"/>
+      <c r="T363" s="25" t="n"/>
     </row>
     <row r="364">
-      <c r="D364" s="24"/>
-      <c r="F364" s="25"/>
-      <c r="T364" s="25"/>
+      <c r="D364" s="24" t="n"/>
+      <c r="F364" s="25" t="n"/>
+      <c r="T364" s="25" t="n"/>
     </row>
     <row r="365">
-      <c r="D365" s="24"/>
-      <c r="F365" s="25"/>
-      <c r="G365" s="25"/>
-      <c r="H365" s="25"/>
-      <c r="T365" s="25"/>
+      <c r="D365" s="24" t="n"/>
+      <c r="F365" s="25" t="n"/>
+      <c r="G365" s="25" t="n"/>
+      <c r="H365" s="25" t="n"/>
+      <c r="T365" s="25" t="n"/>
     </row>
     <row r="366">
-      <c r="D366" s="24"/>
-      <c r="F366" s="25"/>
-      <c r="G366" s="25"/>
-      <c r="H366" s="25"/>
-      <c r="T366" s="25"/>
+      <c r="D366" s="24" t="n"/>
+      <c r="F366" s="25" t="n"/>
+      <c r="G366" s="25" t="n"/>
+      <c r="H366" s="25" t="n"/>
+      <c r="T366" s="25" t="n"/>
     </row>
     <row r="367">
-      <c r="D367" s="24"/>
-      <c r="F367" s="25"/>
-      <c r="G367" s="25"/>
-      <c r="H367" s="25"/>
-      <c r="T367" s="25"/>
+      <c r="D367" s="24" t="n"/>
+      <c r="F367" s="25" t="n"/>
+      <c r="G367" s="25" t="n"/>
+      <c r="H367" s="25" t="n"/>
+      <c r="T367" s="25" t="n"/>
     </row>
     <row r="368">
-      <c r="D368" s="24"/>
-      <c r="H368" s="25"/>
-      <c r="T368" s="25"/>
+      <c r="D368" s="24" t="n"/>
+      <c r="H368" s="25" t="n"/>
+      <c r="T368" s="25" t="n"/>
     </row>
     <row r="369">
-      <c r="D369" s="24"/>
+      <c r="D369" s="24" t="n"/>
     </row>
     <row r="370">
-      <c r="B370" s="25"/>
-      <c r="D370" s="24"/>
+      <c r="B370" s="25" t="n"/>
+      <c r="D370" s="24" t="n"/>
     </row>
     <row r="371">
-      <c r="D371" s="24"/>
-      <c r="T371" s="25"/>
+      <c r="D371" s="24" t="n"/>
+      <c r="T371" s="25" t="n"/>
     </row>
     <row r="372">
-      <c r="D372" s="24"/>
-      <c r="G372" s="25"/>
-      <c r="T372" s="25"/>
+      <c r="D372" s="24" t="n"/>
+      <c r="G372" s="25" t="n"/>
+      <c r="T372" s="25" t="n"/>
     </row>
     <row r="373">
-      <c r="D373" s="24"/>
-      <c r="R373" s="25"/>
-      <c r="T373" s="25"/>
+      <c r="D373" s="24" t="n"/>
+      <c r="R373" s="25" t="n"/>
+      <c r="T373" s="25" t="n"/>
     </row>
     <row r="374">
-      <c r="D374" s="24"/>
-      <c r="T374" s="25"/>
+      <c r="D374" s="24" t="n"/>
+      <c r="T374" s="25" t="n"/>
     </row>
     <row r="375">
-      <c r="D375" s="24"/>
-      <c r="T375" s="25"/>
+      <c r="D375" s="24" t="n"/>
+      <c r="T375" s="25" t="n"/>
     </row>
     <row r="376">
-      <c r="D376" s="24"/>
-      <c r="H376" s="25"/>
-      <c r="T376" s="25"/>
+      <c r="D376" s="24" t="n"/>
+      <c r="H376" s="25" t="n"/>
+      <c r="T376" s="25" t="n"/>
     </row>
     <row r="377">
-      <c r="A377" s="25"/>
-      <c r="C377" s="25"/>
-      <c r="G377" s="25"/>
-      <c r="T377" s="25"/>
+      <c r="A377" s="25" t="n"/>
+      <c r="C377" s="25" t="n"/>
+      <c r="G377" s="25" t="n"/>
+      <c r="T377" s="25" t="n"/>
     </row>
     <row r="380">
-      <c r="D380" s="24"/>
-      <c r="G380" s="25"/>
-      <c r="T380" s="25"/>
+      <c r="D380" s="24" t="n"/>
+      <c r="G380" s="25" t="n"/>
+      <c r="T380" s="25" t="n"/>
     </row>
     <row r="381">
-      <c r="D381" s="24"/>
-      <c r="T381" s="25"/>
+      <c r="D381" s="24" t="n"/>
+      <c r="T381" s="25" t="n"/>
     </row>
     <row r="382">
-      <c r="D382" s="24"/>
-      <c r="R382" s="25"/>
-      <c r="S382" s="25"/>
-      <c r="T382" s="25"/>
+      <c r="D382" s="24" t="n"/>
+      <c r="R382" s="25" t="n"/>
+      <c r="S382" s="25" t="n"/>
+      <c r="T382" s="25" t="n"/>
     </row>
     <row r="383">
-      <c r="D383" s="24"/>
+      <c r="D383" s="24" t="n"/>
     </row>
     <row r="384">
-      <c r="D384" s="24"/>
-      <c r="H384" s="25"/>
-      <c r="T384" s="25"/>
+      <c r="D384" s="24" t="n"/>
+      <c r="H384" s="25" t="n"/>
+      <c r="T384" s="25" t="n"/>
     </row>
     <row r="385">
-      <c r="D385" s="24"/>
+      <c r="D385" s="24" t="n"/>
     </row>
     <row r="386">
-      <c r="D386" s="24"/>
-      <c r="T386" s="25"/>
+      <c r="D386" s="24" t="n"/>
+      <c r="T386" s="25" t="n"/>
     </row>
     <row r="387">
-      <c r="D387" s="24"/>
-      <c r="T387" s="25"/>
+      <c r="D387" s="24" t="n"/>
+      <c r="T387" s="25" t="n"/>
     </row>
     <row r="389">
-      <c r="D389" s="24"/>
+      <c r="D389" s="24" t="n"/>
     </row>
     <row r="390">
-      <c r="D390" s="24"/>
-      <c r="F390" s="25"/>
-      <c r="T390" s="25"/>
+      <c r="D390" s="24" t="n"/>
+      <c r="F390" s="25" t="n"/>
+      <c r="T390" s="25" t="n"/>
     </row>
     <row r="391">
-      <c r="D391" s="24"/>
-      <c r="T391" s="25"/>
+      <c r="D391" s="24" t="n"/>
+      <c r="T391" s="25" t="n"/>
     </row>
     <row r="392">
-      <c r="D392" s="24"/>
+      <c r="D392" s="24" t="n"/>
     </row>
     <row r="393">
-      <c r="D393" s="24"/>
-      <c r="F393" s="25"/>
-      <c r="H393" s="25"/>
-      <c r="T393" s="25"/>
+      <c r="D393" s="24" t="n"/>
+      <c r="F393" s="25" t="n"/>
+      <c r="H393" s="25" t="n"/>
+      <c r="T393" s="25" t="n"/>
     </row>
     <row r="394">
-      <c r="D394" s="24"/>
-      <c r="H394" s="25"/>
-      <c r="T394" s="25"/>
+      <c r="D394" s="24" t="n"/>
+      <c r="H394" s="25" t="n"/>
+      <c r="T394" s="25" t="n"/>
     </row>
     <row r="395">
-      <c r="D395" s="24"/>
-      <c r="T395" s="25"/>
+      <c r="D395" s="24" t="n"/>
+      <c r="T395" s="25" t="n"/>
     </row>
     <row r="396">
-      <c r="D396" s="24"/>
-      <c r="T396" s="25"/>
+      <c r="D396" s="24" t="n"/>
+      <c r="T396" s="25" t="n"/>
     </row>
     <row r="397">
-      <c r="D397" s="24"/>
-      <c r="H397" s="25"/>
-      <c r="T397" s="25"/>
+      <c r="D397" s="24" t="n"/>
+      <c r="H397" s="25" t="n"/>
+      <c r="T397" s="25" t="n"/>
     </row>
     <row r="398">
-      <c r="D398" s="24"/>
+      <c r="D398" s="24" t="n"/>
     </row>
     <row r="399">
-      <c r="D399" s="24"/>
+      <c r="D399" s="24" t="n"/>
     </row>
     <row r="400">
-      <c r="D400" s="24"/>
-      <c r="H400" s="25"/>
-      <c r="T400" s="25"/>
+      <c r="D400" s="24" t="n"/>
+      <c r="H400" s="25" t="n"/>
+      <c r="T400" s="25" t="n"/>
     </row>
     <row r="401">
-      <c r="D401" s="24"/>
-      <c r="G401" s="25"/>
-      <c r="T401" s="25"/>
+      <c r="D401" s="24" t="n"/>
+      <c r="G401" s="25" t="n"/>
+      <c r="T401" s="25" t="n"/>
     </row>
     <row r="402">
-      <c r="D402" s="24"/>
-      <c r="T402" s="25"/>
+      <c r="D402" s="24" t="n"/>
+      <c r="T402" s="25" t="n"/>
     </row>
     <row r="403">
-      <c r="D403" s="24"/>
-      <c r="T403" s="25"/>
+      <c r="D403" s="24" t="n"/>
+      <c r="T403" s="25" t="n"/>
     </row>
     <row r="404">
-      <c r="D404" s="24"/>
+      <c r="D404" s="24" t="n"/>
     </row>
     <row r="405">
-      <c r="D405" s="24"/>
-      <c r="F405" s="25"/>
-      <c r="T405" s="25"/>
+      <c r="D405" s="24" t="n"/>
+      <c r="F405" s="25" t="n"/>
+      <c r="T405" s="25" t="n"/>
     </row>
     <row r="406">
-      <c r="D406" s="24"/>
-      <c r="H406" s="25"/>
-      <c r="T406" s="25"/>
+      <c r="D406" s="24" t="n"/>
+      <c r="H406" s="25" t="n"/>
+      <c r="T406" s="25" t="n"/>
     </row>
     <row r="407">
-      <c r="D407" s="24"/>
-      <c r="T407" s="25"/>
+      <c r="D407" s="24" t="n"/>
+      <c r="T407" s="25" t="n"/>
     </row>
     <row r="408">
-      <c r="D408" s="24"/>
-      <c r="T408" s="25"/>
+      <c r="D408" s="24" t="n"/>
+      <c r="T408" s="25" t="n"/>
     </row>
     <row r="409">
-      <c r="D409" s="24"/>
-      <c r="T409" s="25"/>
+      <c r="D409" s="24" t="n"/>
+      <c r="T409" s="25" t="n"/>
     </row>
     <row r="410">
-      <c r="D410" s="24"/>
-      <c r="T410" s="25"/>
+      <c r="D410" s="24" t="n"/>
+      <c r="T410" s="25" t="n"/>
     </row>
     <row r="411">
-      <c r="D411" s="24"/>
-      <c r="G411" s="25"/>
-      <c r="T411" s="25"/>
+      <c r="D411" s="24" t="n"/>
+      <c r="G411" s="25" t="n"/>
+      <c r="T411" s="25" t="n"/>
     </row>
     <row r="412">
-      <c r="D412" s="24"/>
-      <c r="T412" s="25"/>
+      <c r="D412" s="24" t="n"/>
+      <c r="T412" s="25" t="n"/>
     </row>
     <row r="413">
-      <c r="D413" s="24"/>
-      <c r="T413" s="25"/>
+      <c r="D413" s="24" t="n"/>
+      <c r="T413" s="25" t="n"/>
     </row>
     <row r="414">
-      <c r="B414" s="25"/>
-      <c r="D414" s="24"/>
+      <c r="B414" s="25" t="n"/>
+      <c r="D414" s="24" t="n"/>
     </row>
     <row r="415">
-      <c r="D415" s="24"/>
+      <c r="D415" s="24" t="n"/>
     </row>
     <row r="416">
-      <c r="D416" s="24"/>
+      <c r="D416" s="24" t="n"/>
     </row>
     <row r="417">
-      <c r="D417" s="24"/>
+      <c r="D417" s="24" t="n"/>
     </row>
     <row r="418">
-      <c r="D418" s="24"/>
+      <c r="D418" s="24" t="n"/>
     </row>
     <row r="419">
-      <c r="D419" s="24"/>
+      <c r="D419" s="24" t="n"/>
     </row>
     <row r="420">
-      <c r="D420" s="24"/>
+      <c r="D420" s="24" t="n"/>
     </row>
     <row r="421">
-      <c r="D421" s="24"/>
+      <c r="D421" s="24" t="n"/>
     </row>
     <row r="422">
-      <c r="D422" s="24"/>
+      <c r="D422" s="24" t="n"/>
     </row>
     <row r="423">
-      <c r="D423" s="24"/>
+      <c r="D423" s="24" t="n"/>
     </row>
     <row r="424">
-      <c r="D424" s="24"/>
+      <c r="D424" s="24" t="n"/>
     </row>
     <row r="425">
-      <c r="D425" s="24"/>
+      <c r="D425" s="24" t="n"/>
     </row>
     <row r="426">
-      <c r="D426" s="24"/>
+      <c r="D426" s="24" t="n"/>
     </row>
     <row r="427">
-      <c r="D427" s="24"/>
+      <c r="D427" s="24" t="n"/>
     </row>
     <row r="428">
-      <c r="D428" s="24"/>
+      <c r="D428" s="24" t="n"/>
     </row>
     <row r="429">
-      <c r="D429" s="24"/>
+      <c r="D429" s="24" t="n"/>
     </row>
     <row r="430">
-      <c r="D430" s="24"/>
+      <c r="D430" s="24" t="n"/>
     </row>
     <row r="431">
-      <c r="D431" s="24"/>
+      <c r="D431" s="24" t="n"/>
     </row>
     <row r="432">
-      <c r="D432" s="24"/>
+      <c r="D432" s="24" t="n"/>
     </row>
     <row r="433">
-      <c r="D433" s="24"/>
+      <c r="D433" s="24" t="n"/>
     </row>
     <row r="434">
-      <c r="D434" s="24"/>
+      <c r="D434" s="24" t="n"/>
     </row>
     <row r="435">
-      <c r="D435" s="24"/>
+      <c r="D435" s="24" t="n"/>
     </row>
     <row r="436">
-      <c r="D436" s="24"/>
+      <c r="D436" s="24" t="n"/>
     </row>
     <row r="437">
-      <c r="D437" s="24"/>
+      <c r="D437" s="24" t="n"/>
     </row>
     <row r="438">
-      <c r="D438" s="24"/>
+      <c r="D438" s="24" t="n"/>
     </row>
     <row r="439">
-      <c r="D439" s="24"/>
+      <c r="D439" s="24" t="n"/>
     </row>
     <row r="440">
-      <c r="D440" s="24"/>
+      <c r="D440" s="24" t="n"/>
     </row>
     <row r="441">
-      <c r="D441" s="24"/>
+      <c r="D441" s="24" t="n"/>
     </row>
     <row r="442">
-      <c r="D442" s="24"/>
+      <c r="D442" s="24" t="n"/>
     </row>
     <row r="443">
-      <c r="D443" s="24"/>
+      <c r="D443" s="24" t="n"/>
     </row>
     <row r="444">
-      <c r="D444" s="24"/>
+      <c r="D444" s="24" t="n"/>
     </row>
     <row r="445">
-      <c r="D445" s="24"/>
+      <c r="D445" s="24" t="n"/>
     </row>
     <row r="446">
-      <c r="D446" s="24"/>
+      <c r="D446" s="24" t="n"/>
     </row>
     <row r="447">
-      <c r="D447" s="24"/>
+      <c r="D447" s="24" t="n"/>
     </row>
     <row r="448">
-      <c r="D448" s="24"/>
+      <c r="D448" s="24" t="n"/>
     </row>
     <row r="449">
-      <c r="D449" s="24"/>
+      <c r="D449" s="24" t="n"/>
     </row>
     <row r="450">
-      <c r="D450" s="24"/>
+      <c r="D450" s="24" t="n"/>
     </row>
     <row r="451">
-      <c r="D451" s="24"/>
+      <c r="D451" s="24" t="n"/>
     </row>
     <row r="452">
-      <c r="D452" s="24"/>
+      <c r="D452" s="24" t="n"/>
     </row>
     <row r="453">
-      <c r="D453" s="24"/>
+      <c r="D453" s="24" t="n"/>
     </row>
     <row r="454">
-      <c r="D454" s="24"/>
+      <c r="D454" s="24" t="n"/>
     </row>
     <row r="455">
-      <c r="D455" s="24"/>
+      <c r="D455" s="24" t="n"/>
     </row>
     <row r="456">
-      <c r="D456" s="24"/>
+      <c r="D456" s="24" t="n"/>
     </row>
     <row r="457">
-      <c r="D457" s="24"/>
+      <c r="D457" s="24" t="n"/>
     </row>
     <row r="458">
-      <c r="D458" s="24"/>
+      <c r="D458" s="24" t="n"/>
     </row>
     <row r="459">
-      <c r="D459" s="24"/>
+      <c r="D459" s="24" t="n"/>
     </row>
     <row r="460">
-      <c r="D460" s="24"/>
+      <c r="D460" s="24" t="n"/>
     </row>
     <row r="461">
-      <c r="D461" s="24"/>
+      <c r="D461" s="24" t="n"/>
     </row>
     <row r="462">
-      <c r="D462" s="24"/>
+      <c r="D462" s="24" t="n"/>
     </row>
     <row r="463">
-      <c r="D463" s="24"/>
+      <c r="D463" s="24" t="n"/>
     </row>
     <row r="464">
-      <c r="D464" s="24"/>
+      <c r="D464" s="24" t="n"/>
     </row>
     <row r="465">
-      <c r="D465" s="24"/>
+      <c r="D465" s="24" t="n"/>
     </row>
     <row r="466">
-      <c r="D466" s="24"/>
+      <c r="D466" s="24" t="n"/>
     </row>
     <row r="467">
-      <c r="D467" s="24"/>
+      <c r="D467" s="24" t="n"/>
     </row>
     <row r="468">
-      <c r="D468" s="24"/>
+      <c r="D468" s="24" t="n"/>
     </row>
     <row r="469">
-      <c r="D469" s="24"/>
+      <c r="D469" s="24" t="n"/>
     </row>
     <row r="470">
-      <c r="D470" s="24"/>
+      <c r="D470" s="24" t="n"/>
     </row>
     <row r="471">
-      <c r="D471" s="24"/>
+      <c r="D471" s="24" t="n"/>
     </row>
     <row r="472">
-      <c r="D472" s="24"/>
+      <c r="D472" s="24" t="n"/>
     </row>
     <row r="473">
-      <c r="D473" s="24"/>
+      <c r="D473" s="24" t="n"/>
     </row>
     <row r="474">
-      <c r="D474" s="24"/>
+      <c r="D474" s="24" t="n"/>
     </row>
     <row r="475">
-      <c r="D475" s="24"/>
+      <c r="D475" s="24" t="n"/>
     </row>
     <row r="476">
-      <c r="D476" s="24"/>
+      <c r="D476" s="24" t="n"/>
     </row>
     <row r="477">
-      <c r="D477" s="24"/>
+      <c r="D477" s="24" t="n"/>
     </row>
     <row r="478">
-      <c r="D478" s="24"/>
+      <c r="D478" s="24" t="n"/>
     </row>
     <row r="479">
-      <c r="D479" s="24"/>
+      <c r="D479" s="24" t="n"/>
     </row>
     <row r="480">
-      <c r="D480" s="24"/>
+      <c r="D480" s="24" t="n"/>
     </row>
     <row r="481">
-      <c r="D481" s="24"/>
+      <c r="D481" s="24" t="n"/>
     </row>
     <row r="482">
-      <c r="D482" s="24"/>
+      <c r="D482" s="24" t="n"/>
     </row>
     <row r="483">
-      <c r="D483" s="24"/>
+      <c r="D483" s="24" t="n"/>
     </row>
     <row r="484">
-      <c r="D484" s="24"/>
+      <c r="D484" s="24" t="n"/>
     </row>
     <row r="485">
-      <c r="D485" s="24"/>
+      <c r="D485" s="24" t="n"/>
     </row>
     <row r="486">
-      <c r="D486" s="24"/>
+      <c r="D486" s="24" t="n"/>
     </row>
     <row r="487">
-      <c r="D487" s="24"/>
+      <c r="D487" s="24" t="n"/>
     </row>
     <row r="488">
-      <c r="D488" s="24"/>
+      <c r="D488" s="24" t="n"/>
     </row>
     <row r="489">
-      <c r="D489" s="24"/>
+      <c r="D489" s="24" t="n"/>
     </row>
     <row r="490">
-      <c r="D490" s="24"/>
+      <c r="D490" s="24" t="n"/>
     </row>
     <row r="491">
-      <c r="D491" s="24"/>
+      <c r="D491" s="24" t="n"/>
     </row>
     <row r="492">
-      <c r="D492" s="24"/>
+      <c r="D492" s="24" t="n"/>
     </row>
     <row r="493">
-      <c r="D493" s="24"/>
+      <c r="D493" s="24" t="n"/>
     </row>
     <row r="494">
-      <c r="D494" s="24"/>
+      <c r="D494" s="24" t="n"/>
     </row>
     <row r="495">
-      <c r="D495" s="24"/>
+      <c r="D495" s="24" t="n"/>
     </row>
     <row r="496">
-      <c r="D496" s="24"/>
+      <c r="D496" s="24" t="n"/>
     </row>
     <row r="497">
-      <c r="D497" s="24"/>
+      <c r="D497" s="24" t="n"/>
     </row>
     <row r="498">
-      <c r="D498" s="24"/>
+      <c r="D498" s="24" t="n"/>
     </row>
     <row r="499">
-      <c r="D499" s="24"/>
+      <c r="D499" s="24" t="n"/>
     </row>
     <row r="500">
-      <c r="D500" s="24"/>
+      <c r="D500" s="24" t="n"/>
     </row>
     <row r="501">
-      <c r="D501" s="24"/>
+      <c r="D501" s="24" t="n"/>
     </row>
     <row r="502">
-      <c r="D502" s="24"/>
+      <c r="D502" s="24" t="n"/>
     </row>
     <row r="503">
-      <c r="D503" s="24"/>
+      <c r="D503" s="24" t="n"/>
     </row>
     <row r="504">
-      <c r="D504" s="24"/>
+      <c r="D504" s="24" t="n"/>
     </row>
     <row r="505">
-      <c r="D505" s="24"/>
+      <c r="D505" s="24" t="n"/>
     </row>
     <row r="506">
-      <c r="D506" s="24"/>
+      <c r="D506" s="24" t="n"/>
     </row>
     <row r="507">
-      <c r="D507" s="24"/>
+      <c r="D507" s="24" t="n"/>
     </row>
     <row r="508">
-      <c r="D508" s="24"/>
+      <c r="D508" s="24" t="n"/>
     </row>
     <row r="509">
-      <c r="D509" s="24"/>
+      <c r="D509" s="24" t="n"/>
     </row>
     <row r="510">
-      <c r="D510" s="24"/>
+      <c r="D510" s="24" t="n"/>
     </row>
     <row r="511">
-      <c r="D511" s="24"/>
+      <c r="D511" s="24" t="n"/>
     </row>
     <row r="512">
-      <c r="D512" s="24"/>
+      <c r="D512" s="24" t="n"/>
     </row>
     <row r="513">
-      <c r="D513" s="24"/>
+      <c r="D513" s="24" t="n"/>
     </row>
     <row r="514">
-      <c r="D514" s="24"/>
+      <c r="D514" s="24" t="n"/>
     </row>
     <row r="515">
-      <c r="D515" s="24"/>
+      <c r="D515" s="24" t="n"/>
     </row>
     <row r="516">
-      <c r="D516" s="24"/>
+      <c r="D516" s="24" t="n"/>
     </row>
     <row r="517">
-      <c r="D517" s="24"/>
+      <c r="D517" s="24" t="n"/>
     </row>
     <row r="518">
-      <c r="D518" s="24"/>
+      <c r="D518" s="24" t="n"/>
     </row>
     <row r="519">
-      <c r="D519" s="24"/>
+      <c r="D519" s="24" t="n"/>
     </row>
     <row r="520">
-      <c r="D520" s="24"/>
+      <c r="D520" s="24" t="n"/>
     </row>
     <row r="521">
-      <c r="D521" s="24"/>
+      <c r="D521" s="24" t="n"/>
     </row>
     <row r="522">
-      <c r="D522" s="24"/>
+      <c r="D522" s="24" t="n"/>
     </row>
     <row r="523">
-      <c r="D523" s="24"/>
+      <c r="D523" s="24" t="n"/>
     </row>
     <row r="524">
-      <c r="D524" s="24"/>
+      <c r="D524" s="24" t="n"/>
     </row>
     <row r="525">
-      <c r="D525" s="24"/>
+      <c r="D525" s="24" t="n"/>
     </row>
     <row r="526">
-      <c r="D526" s="24"/>
+      <c r="D526" s="24" t="n"/>
     </row>
     <row r="527">
-      <c r="D527" s="24"/>
+      <c r="D527" s="24" t="n"/>
     </row>
     <row r="528">
-      <c r="D528" s="24"/>
+      <c r="D528" s="24" t="n"/>
     </row>
     <row r="529">
-      <c r="D529" s="24"/>
+      <c r="D529" s="24" t="n"/>
     </row>
     <row r="530">
-      <c r="D530" s="26"/>
+      <c r="D530" s="26" t="n"/>
     </row>
     <row r="531">
-      <c r="D531" s="26"/>
+      <c r="D531" s="26" t="n"/>
     </row>
     <row r="532">
-      <c r="D532" s="26"/>
+      <c r="D532" s="26" t="n"/>
     </row>
     <row r="533">
-      <c r="D533" s="26"/>
+      <c r="D533" s="26" t="n"/>
     </row>
     <row r="534">
-      <c r="D534" s="26"/>
+      <c r="D534" s="26" t="n"/>
     </row>
     <row r="535">
-      <c r="D535" s="26"/>
+      <c r="D535" s="26" t="n"/>
     </row>
     <row r="536">
-      <c r="D536" s="26"/>
+      <c r="D536" s="26" t="n"/>
     </row>
     <row r="537">
-      <c r="D537" s="26"/>
+      <c r="D537" s="26" t="n"/>
     </row>
     <row r="538">
-      <c r="D538" s="26"/>
+      <c r="D538" s="26" t="n"/>
     </row>
     <row r="539">
-      <c r="D539" s="26"/>
+      <c r="D539" s="26" t="n"/>
     </row>
     <row r="540">
-      <c r="D540" s="26"/>
+      <c r="D540" s="26" t="n"/>
     </row>
     <row r="541">
-      <c r="D541" s="26"/>
+      <c r="D541" s="26" t="n"/>
     </row>
     <row r="542">
-      <c r="D542" s="26"/>
+      <c r="D542" s="26" t="n"/>
     </row>
     <row r="543">
-      <c r="D543" s="26"/>
+      <c r="D543" s="26" t="n"/>
     </row>
     <row r="544">
-      <c r="D544" s="26"/>
+      <c r="D544" s="26" t="n"/>
     </row>
     <row r="545">
-      <c r="D545" s="26"/>
+      <c r="D545" s="26" t="n"/>
     </row>
     <row r="546">
-      <c r="D546" s="26"/>
+      <c r="D546" s="26" t="n"/>
     </row>
     <row r="547">
-      <c r="D547" s="26"/>
+      <c r="D547" s="26" t="n"/>
     </row>
     <row r="548">
-      <c r="D548" s="26"/>
+      <c r="D548" s="26" t="n"/>
     </row>
     <row r="549">
-      <c r="D549" s="26"/>
+      <c r="D549" s="26" t="n"/>
     </row>
     <row r="550">
-      <c r="D550" s="26"/>
+      <c r="D550" s="26" t="n"/>
     </row>
     <row r="551">
-      <c r="D551" s="27"/>
+      <c r="D551" s="27" t="n"/>
     </row>
     <row r="552">
-      <c r="D552" s="27"/>
+      <c r="D552" s="27" t="n"/>
     </row>
     <row r="553">
-      <c r="D553" s="27"/>
+      <c r="D553" s="27" t="n"/>
     </row>
     <row r="554">
-      <c r="D554" s="27"/>
+      <c r="D554" s="27" t="n"/>
     </row>
     <row r="555">
-      <c r="D555" s="27"/>
+      <c r="D555" s="27" t="n"/>
     </row>
     <row r="556">
-      <c r="D556" s="27"/>
+      <c r="D556" s="27" t="n"/>
     </row>
     <row r="557">
-      <c r="D557" s="27"/>
+      <c r="D557" s="27" t="n"/>
     </row>
     <row r="558">
-      <c r="D558" s="27"/>
+      <c r="D558" s="27" t="n"/>
     </row>
     <row r="559">
-      <c r="D559" s="27"/>
+      <c r="D559" s="27" t="n"/>
     </row>
     <row r="560">
-      <c r="D560" s="27"/>
+      <c r="D560" s="27" t="n"/>
     </row>
     <row r="561">
-      <c r="D561" s="27"/>
+      <c r="D561" s="27" t="n"/>
     </row>
     <row r="562">
-      <c r="D562" s="27"/>
+      <c r="D562" s="27" t="n"/>
     </row>
     <row r="563">
-      <c r="D563" s="27"/>
+      <c r="D563" s="27" t="n"/>
     </row>
     <row r="564">
-      <c r="D564" s="27"/>
+      <c r="D564" s="27" t="n"/>
     </row>
     <row r="565">
-      <c r="D565" s="27"/>
+      <c r="D565" s="27" t="n"/>
     </row>
     <row r="566">
-      <c r="D566" s="27"/>
+      <c r="D566" s="27" t="n"/>
     </row>
     <row r="567">
-      <c r="D567" s="27"/>
+      <c r="D567" s="27" t="n"/>
     </row>
     <row r="568">
-      <c r="D568" s="27"/>
+      <c r="D568" s="27" t="n"/>
     </row>
     <row r="569">
-      <c r="D569" s="27"/>
+      <c r="D569" s="27" t="n"/>
     </row>
     <row r="570">
-      <c r="D570" s="27"/>
+      <c r="D570" s="27" t="n"/>
     </row>
     <row r="571">
-      <c r="D571" s="27"/>
+      <c r="D571" s="27" t="n"/>
     </row>
     <row r="572">
-      <c r="D572" s="27"/>
+      <c r="D572" s="27" t="n"/>
     </row>
     <row r="573">
-      <c r="D573" s="27"/>
+      <c r="D573" s="27" t="n"/>
     </row>
     <row r="574">
-      <c r="D574" s="27"/>
+      <c r="D574" s="27" t="n"/>
     </row>
     <row r="575">
-      <c r="D575" s="27"/>
+      <c r="D575" s="27" t="n"/>
     </row>
     <row r="576">
-      <c r="D576" s="27"/>
+      <c r="D576" s="27" t="n"/>
     </row>
     <row r="577">
-      <c r="D577" s="27"/>
+      <c r="D577" s="27" t="n"/>
     </row>
     <row r="578">
-      <c r="D578" s="27"/>
+      <c r="D578" s="27" t="n"/>
     </row>
     <row r="579">
-      <c r="D579" s="27"/>
+      <c r="D579" s="27" t="n"/>
     </row>
     <row r="580">
-      <c r="D580" s="27"/>
+      <c r="D580" s="27" t="n"/>
     </row>
     <row r="581">
-      <c r="D581" s="27"/>
+      <c r="D581" s="27" t="n"/>
     </row>
     <row r="582">
-      <c r="D582" s="27"/>
+      <c r="D582" s="27" t="n"/>
     </row>
     <row r="583">
-      <c r="D583" s="27"/>
+      <c r="D583" s="27" t="n"/>
     </row>
     <row r="584">
-      <c r="D584" s="27"/>
+      <c r="D584" s="27" t="n"/>
     </row>
     <row r="585">
-      <c r="D585" s="27"/>
+      <c r="D585" s="27" t="n"/>
     </row>
     <row r="586">
-      <c r="D586" s="27"/>
+      <c r="D586" s="27" t="n"/>
     </row>
     <row r="587">
-      <c r="D587" s="27"/>
+      <c r="D587" s="27" t="n"/>
     </row>
     <row r="588">
-      <c r="D588" s="27"/>
+      <c r="D588" s="27" t="n"/>
     </row>
     <row r="589">
-      <c r="D589" s="27"/>
+      <c r="D589" s="27" t="n"/>
     </row>
     <row r="590">
-      <c r="D590" s="27"/>
+      <c r="D590" s="27" t="n"/>
     </row>
     <row r="591">
-      <c r="D591" s="27"/>
+      <c r="D591" s="27" t="n"/>
     </row>
     <row r="592">
-      <c r="D592" s="27"/>
+      <c r="D592" s="27" t="n"/>
     </row>
     <row r="593">
-      <c r="D593" s="27"/>
+      <c r="D593" s="27" t="n"/>
     </row>
     <row r="594">
-      <c r="D594" s="27"/>
+      <c r="D594" s="27" t="n"/>
     </row>
     <row r="595">
-      <c r="D595" s="27"/>
+      <c r="D595" s="27" t="n"/>
     </row>
     <row r="596">
-      <c r="D596" s="27"/>
+      <c r="D596" s="27" t="n"/>
     </row>
     <row r="597">
-      <c r="D597" s="27"/>
+      <c r="D597" s="27" t="n"/>
     </row>
     <row r="598">
-      <c r="D598" s="27"/>
+      <c r="D598" s="27" t="n"/>
     </row>
     <row r="599">
-      <c r="D599" s="27"/>
+      <c r="D599" s="27" t="n"/>
     </row>
     <row r="600">
-      <c r="D600" s="27"/>
+      <c r="D600" s="27" t="n"/>
     </row>
     <row r="601">
-      <c r="D601" s="27"/>
+      <c r="D601" s="27" t="n"/>
     </row>
     <row r="602">
-      <c r="D602" s="27"/>
+      <c r="D602" s="27" t="n"/>
     </row>
     <row r="603">
-      <c r="D603" s="27"/>
+      <c r="D603" s="27" t="n"/>
     </row>
     <row r="604">
-      <c r="D604" s="27"/>
+      <c r="D604" s="27" t="n"/>
     </row>
     <row r="605">
-      <c r="D605" s="27"/>
+      <c r="D605" s="27" t="n"/>
     </row>
     <row r="606">
-      <c r="D606" s="27"/>
+      <c r="D606" s="27" t="n"/>
     </row>
     <row r="607">
-      <c r="D607" s="27"/>
+      <c r="D607" s="27" t="n"/>
     </row>
     <row r="608">
-      <c r="D608" s="27"/>
+      <c r="D608" s="27" t="n"/>
     </row>
     <row r="609">
-      <c r="D609" s="27"/>
+      <c r="D609" s="27" t="n"/>
     </row>
     <row r="610">
-      <c r="D610" s="27"/>
+      <c r="D610" s="27" t="n"/>
     </row>
     <row r="611">
-      <c r="D611" s="27"/>
+      <c r="D611" s="27" t="n"/>
     </row>
     <row r="612">
-      <c r="D612" s="27"/>
+      <c r="D612" s="27" t="n"/>
     </row>
     <row r="613">
-      <c r="D613" s="27"/>
+      <c r="D613" s="27" t="n"/>
     </row>
     <row r="614">
-      <c r="D614" s="27"/>
+      <c r="D614" s="27" t="n"/>
     </row>
     <row r="615">
-      <c r="D615" s="27"/>
+      <c r="D615" s="27" t="n"/>
     </row>
     <row r="616">
-      <c r="D616" s="27"/>
+      <c r="D616" s="27" t="n"/>
     </row>
     <row r="617">
-      <c r="D617" s="27"/>
+      <c r="D617" s="27" t="n"/>
     </row>
     <row r="618">
-      <c r="D618" s="27"/>
+      <c r="D618" s="27" t="n"/>
     </row>
     <row r="619">
-      <c r="D619" s="27"/>
+      <c r="D619" s="27" t="n"/>
     </row>
     <row r="620">
-      <c r="D620" s="27"/>
+      <c r="D620" s="27" t="n"/>
     </row>
     <row r="621">
-      <c r="D621" s="27"/>
+      <c r="D621" s="27" t="n"/>
     </row>
     <row r="622">
-      <c r="D622" s="27"/>
+      <c r="D622" s="27" t="n"/>
     </row>
     <row r="623">
-      <c r="D623" s="27"/>
+      <c r="D623" s="27" t="n"/>
     </row>
     <row r="624">
-      <c r="D624" s="27"/>
+      <c r="D624" s="27" t="n"/>
     </row>
     <row r="625">
-      <c r="D625" s="27"/>
+      <c r="D625" s="27" t="n"/>
     </row>
     <row r="626">
-      <c r="D626" s="27"/>
+      <c r="D626" s="27" t="n"/>
     </row>
     <row r="627">
-      <c r="D627" s="27"/>
+      <c r="D627" s="27" t="n"/>
     </row>
     <row r="628">
-      <c r="D628" s="27"/>
+      <c r="D628" s="27" t="n"/>
     </row>
     <row r="629">
-      <c r="D629" s="27"/>
+      <c r="D629" s="27" t="n"/>
     </row>
     <row r="630">
-      <c r="D630" s="27"/>
+      <c r="D630" s="27" t="n"/>
     </row>
     <row r="631">
-      <c r="D631" s="27"/>
+      <c r="D631" s="27" t="n"/>
     </row>
     <row r="632">
-      <c r="D632" s="27"/>
+      <c r="D632" s="27" t="n"/>
     </row>
     <row r="633">
-      <c r="D633" s="27"/>
+      <c r="D633" s="27" t="n"/>
     </row>
     <row r="634">
-      <c r="D634" s="27"/>
+      <c r="D634" s="27" t="n"/>
     </row>
     <row r="635">
-      <c r="D635" s="27"/>
+      <c r="D635" s="27" t="n"/>
     </row>
     <row r="636">
-      <c r="D636" s="27"/>
+      <c r="D636" s="27" t="n"/>
     </row>
     <row r="637">
-      <c r="D637" s="27"/>
+      <c r="D637" s="27" t="n"/>
     </row>
     <row r="638">
-      <c r="D638" s="27"/>
+      <c r="D638" s="27" t="n"/>
     </row>
     <row r="639">
-      <c r="D639" s="27"/>
+      <c r="D639" s="27" t="n"/>
     </row>
     <row r="640">
-      <c r="D640" s="27"/>
+      <c r="D640" s="27" t="n"/>
     </row>
     <row r="641">
-      <c r="D641" s="27"/>
+      <c r="D641" s="27" t="n"/>
     </row>
     <row r="642">
-      <c r="D642" s="27"/>
+      <c r="D642" s="27" t="n"/>
     </row>
     <row r="643">
-      <c r="D643" s="27"/>
+      <c r="D643" s="27" t="n"/>
     </row>
     <row r="644">
-      <c r="D644" s="27"/>
+      <c r="D644" s="27" t="n"/>
     </row>
     <row r="645">
-      <c r="D645" s="27"/>
+      <c r="D645" s="27" t="n"/>
     </row>
     <row r="646">
-      <c r="D646" s="27"/>
+      <c r="D646" s="27" t="n"/>
     </row>
     <row r="647">
-      <c r="D647" s="27"/>
+      <c r="D647" s="27" t="n"/>
     </row>
     <row r="648">
-      <c r="D648" s="27"/>
+      <c r="D648" s="27" t="n"/>
     </row>
     <row r="649">
-      <c r="D649" s="27"/>
+      <c r="D649" s="27" t="n"/>
     </row>
     <row r="650">
-      <c r="D650" s="27"/>
+      <c r="D650" s="27" t="n"/>
     </row>
     <row r="651">
-      <c r="D651" s="27"/>
+      <c r="D651" s="27" t="n"/>
     </row>
     <row r="652">
-      <c r="D652" s="27"/>
+      <c r="D652" s="27" t="n"/>
     </row>
     <row r="653">
-      <c r="D653" s="27"/>
+      <c r="D653" s="27" t="n"/>
     </row>
     <row r="654">
-      <c r="D654" s="27"/>
+      <c r="D654" s="27" t="n"/>
     </row>
     <row r="655">
-      <c r="D655" s="27"/>
+      <c r="D655" s="27" t="n"/>
     </row>
     <row r="656">
-      <c r="D656" s="27"/>
+      <c r="D656" s="27" t="n"/>
     </row>
     <row r="657">
-      <c r="D657" s="27"/>
+      <c r="D657" s="27" t="n"/>
     </row>
     <row r="658">
-      <c r="D658" s="27"/>
+      <c r="D658" s="27" t="n"/>
     </row>
     <row r="659">
-      <c r="D659" s="27"/>
+      <c r="D659" s="27" t="n"/>
     </row>
     <row r="660">
-      <c r="D660" s="27"/>
+      <c r="D660" s="27" t="n"/>
     </row>
     <row r="661">
-      <c r="D661" s="27"/>
+      <c r="D661" s="27" t="n"/>
     </row>
     <row r="662">
-      <c r="D662" s="27"/>
+      <c r="D662" s="27" t="n"/>
     </row>
     <row r="663">
-      <c r="D663" s="27"/>
+      <c r="D663" s="27" t="n"/>
     </row>
     <row r="664">
-      <c r="D664" s="27"/>
+      <c r="D664" s="27" t="n"/>
     </row>
     <row r="665">
-      <c r="D665" s="27"/>
+      <c r="D665" s="27" t="n"/>
     </row>
     <row r="666">
-      <c r="D666" s="27"/>
+      <c r="D666" s="27" t="n"/>
     </row>
     <row r="667">
-      <c r="D667" s="27"/>
+      <c r="D667" s="27" t="n"/>
     </row>
     <row r="668">
-      <c r="D668" s="27"/>
+      <c r="D668" s="27" t="n"/>
     </row>
     <row r="669">
-      <c r="D669" s="27"/>
+      <c r="D669" s="27" t="n"/>
     </row>
     <row r="670">
-      <c r="D670" s="27"/>
+      <c r="D670" s="27" t="n"/>
     </row>
     <row r="671">
-      <c r="D671" s="27"/>
+      <c r="D671" s="27" t="n"/>
     </row>
     <row r="672">
-      <c r="D672" s="27"/>
+      <c r="D672" s="27" t="n"/>
     </row>
     <row r="673">
-      <c r="D673" s="27"/>
+      <c r="D673" s="27" t="n"/>
     </row>
     <row r="674">
-      <c r="D674" s="27"/>
+      <c r="D674" s="27" t="n"/>
     </row>
     <row r="675">
-      <c r="D675" s="27"/>
+      <c r="D675" s="27" t="n"/>
     </row>
     <row r="676">
-      <c r="D676" s="27"/>
+      <c r="D676" s="27" t="n"/>
     </row>
     <row r="677">
-      <c r="D677" s="27"/>
+      <c r="D677" s="27" t="n"/>
     </row>
     <row r="678">
-      <c r="D678" s="27"/>
+      <c r="D678" s="27" t="n"/>
     </row>
     <row r="679">
-      <c r="D679" s="27"/>
+      <c r="D679" s="27" t="n"/>
     </row>
     <row r="680">
-      <c r="D680" s="27"/>
+      <c r="D680" s="27" t="n"/>
     </row>
     <row r="681">
-      <c r="D681" s="27"/>
+      <c r="D681" s="27" t="n"/>
     </row>
     <row r="682">
-      <c r="D682" s="27"/>
+      <c r="D682" s="27" t="n"/>
     </row>
     <row r="683">
-      <c r="D683" s="27"/>
+      <c r="D683" s="27" t="n"/>
     </row>
     <row r="684">
-      <c r="D684" s="27"/>
+      <c r="D684" s="27" t="n"/>
     </row>
     <row r="685">
-      <c r="D685" s="27"/>
+      <c r="D685" s="27" t="n"/>
     </row>
     <row r="686">
-      <c r="D686" s="27"/>
+      <c r="D686" s="27" t="n"/>
     </row>
     <row r="687">
-      <c r="D687" s="27"/>
+      <c r="D687" s="27" t="n"/>
     </row>
     <row r="688">
-      <c r="D688" s="27"/>
+      <c r="D688" s="27" t="n"/>
     </row>
     <row r="689">
-      <c r="D689" s="27"/>
+      <c r="D689" s="27" t="n"/>
     </row>
     <row r="690">
-      <c r="D690" s="27"/>
+      <c r="D690" s="27" t="n"/>
     </row>
     <row r="691">
-      <c r="D691" s="27"/>
+      <c r="D691" s="27" t="n"/>
     </row>
     <row r="692">
-      <c r="D692" s="27"/>
+      <c r="D692" s="27" t="n"/>
     </row>
     <row r="693">
-      <c r="D693" s="27"/>
+      <c r="D693" s="27" t="n"/>
     </row>
     <row r="694">
-      <c r="D694" s="27"/>
+      <c r="D694" s="27" t="n"/>
     </row>
     <row r="695">
-      <c r="D695" s="27"/>
+      <c r="D695" s="27" t="n"/>
     </row>
     <row r="696">
-      <c r="D696" s="27"/>
+      <c r="D696" s="27" t="n"/>
     </row>
     <row r="697">
-      <c r="D697" s="27"/>
+      <c r="D697" s="27" t="n"/>
     </row>
     <row r="698">
-      <c r="D698" s="27"/>
+      <c r="D698" s="27" t="n"/>
     </row>
     <row r="699">
-      <c r="D699" s="27"/>
+      <c r="D699" s="27" t="n"/>
     </row>
     <row r="700">
-      <c r="D700" s="27"/>
+      <c r="D700" s="27" t="n"/>
     </row>
     <row r="701">
-      <c r="D701" s="27"/>
+      <c r="D701" s="27" t="n"/>
     </row>
     <row r="702">
-      <c r="D702" s="27"/>
+      <c r="D702" s="27" t="n"/>
     </row>
     <row r="703">
-      <c r="D703" s="27"/>
+      <c r="D703" s="27" t="n"/>
     </row>
     <row r="704">
-      <c r="D704" s="27"/>
+      <c r="D704" s="27" t="n"/>
     </row>
     <row r="705">
-      <c r="D705" s="27"/>
+      <c r="D705" s="27" t="n"/>
     </row>
     <row r="706">
-      <c r="D706" s="27"/>
+      <c r="D706" s="27" t="n"/>
     </row>
     <row r="707">
-      <c r="D707" s="27"/>
+      <c r="D707" s="27" t="n"/>
     </row>
     <row r="708">
-      <c r="D708" s="27"/>
+      <c r="D708" s="27" t="n"/>
     </row>
     <row r="709">
-      <c r="D709" s="27"/>
+      <c r="D709" s="27" t="n"/>
     </row>
     <row r="710">
-      <c r="D710" s="27"/>
+      <c r="D710" s="27" t="n"/>
     </row>
     <row r="711">
-      <c r="D711" s="27"/>
+      <c r="D711" s="27" t="n"/>
     </row>
     <row r="712">
-      <c r="D712" s="27"/>
+      <c r="D712" s="27" t="n"/>
     </row>
     <row r="713">
-      <c r="D713" s="27"/>
+      <c r="D713" s="27" t="n"/>
     </row>
     <row r="714">
-      <c r="D714" s="27"/>
+      <c r="D714" s="27" t="n"/>
     </row>
     <row r="715">
-      <c r="D715" s="27"/>
+      <c r="D715" s="27" t="n"/>
     </row>
     <row r="716">
-      <c r="D716" s="27"/>
+      <c r="D716" s="27" t="n"/>
     </row>
     <row r="717">
-      <c r="D717" s="27"/>
+      <c r="D717" s="27" t="n"/>
     </row>
     <row r="718">
-      <c r="D718" s="27"/>
+      <c r="D718" s="27" t="n"/>
     </row>
     <row r="719">
-      <c r="D719" s="27"/>
+      <c r="D719" s="27" t="n"/>
     </row>
     <row r="720">
-      <c r="D720" s="27"/>
+      <c r="D720" s="27" t="n"/>
     </row>
     <row r="721">
-      <c r="D721" s="27"/>
+      <c r="D721" s="27" t="n"/>
     </row>
     <row r="722">
-      <c r="D722" s="27"/>
+      <c r="D722" s="27" t="n"/>
     </row>
     <row r="723">
-      <c r="D723" s="27"/>
+      <c r="D723" s="27" t="n"/>
     </row>
     <row r="724">
-      <c r="D724" s="27"/>
+      <c r="D724" s="27" t="n"/>
     </row>
     <row r="725">
-      <c r="D725" s="27"/>
+      <c r="D725" s="27" t="n"/>
     </row>
     <row r="726">
-      <c r="D726" s="27"/>
+      <c r="D726" s="27" t="n"/>
     </row>
     <row r="727">
-      <c r="D727" s="27"/>
+      <c r="D727" s="27" t="n"/>
     </row>
     <row r="728">
-      <c r="D728" s="27"/>
+      <c r="D728" s="27" t="n"/>
     </row>
     <row r="729">
-      <c r="D729" s="27"/>
+      <c r="D729" s="27" t="n"/>
     </row>
     <row r="730">
-      <c r="D730" s="27"/>
+      <c r="D730" s="27" t="n"/>
     </row>
     <row r="731">
-      <c r="D731" s="27"/>
+      <c r="D731" s="27" t="n"/>
     </row>
     <row r="732">
-      <c r="D732" s="27"/>
+      <c r="D732" s="27" t="n"/>
     </row>
     <row r="733">
-      <c r="D733" s="27"/>
+      <c r="D733" s="27" t="n"/>
     </row>
     <row r="734">
-      <c r="D734" s="27"/>
+      <c r="D734" s="27" t="n"/>
     </row>
     <row r="735">
-      <c r="D735" s="27"/>
+      <c r="D735" s="27" t="n"/>
     </row>
     <row r="736">
-      <c r="D736" s="27"/>
+      <c r="D736" s="27" t="n"/>
     </row>
     <row r="737">
-      <c r="D737" s="27"/>
+      <c r="D737" s="27" t="n"/>
     </row>
     <row r="738">
-      <c r="D738" s="27"/>
+      <c r="D738" s="27" t="n"/>
     </row>
     <row r="739">
-      <c r="D739" s="27"/>
+      <c r="D739" s="27" t="n"/>
     </row>
     <row r="740">
-      <c r="D740" s="27"/>
+      <c r="D740" s="27" t="n"/>
     </row>
     <row r="741">
-      <c r="D741" s="27"/>
+      <c r="D741" s="27" t="n"/>
     </row>
     <row r="742">
-      <c r="D742" s="27"/>
+      <c r="D742" s="27" t="n"/>
     </row>
     <row r="743">
-      <c r="D743" s="27"/>
+      <c r="D743" s="27" t="n"/>
     </row>
     <row r="744">
-      <c r="D744" s="27"/>
+      <c r="D744" s="27" t="n"/>
     </row>
     <row r="745">
-      <c r="D745" s="27"/>
+      <c r="D745" s="27" t="n"/>
     </row>
     <row r="746">
-      <c r="D746" s="27"/>
+      <c r="D746" s="27" t="n"/>
     </row>
     <row r="747">
-      <c r="D747" s="27"/>
+      <c r="D747" s="27" t="n"/>
     </row>
     <row r="748">
-      <c r="D748" s="27"/>
+      <c r="D748" s="27" t="n"/>
     </row>
     <row r="749">
-      <c r="D749" s="27"/>
+      <c r="D749" s="27" t="n"/>
     </row>
     <row r="750">
-      <c r="D750" s="27"/>
+      <c r="D750" s="27" t="n"/>
     </row>
     <row r="751">
-      <c r="D751" s="27"/>
+      <c r="D751" s="27" t="n"/>
     </row>
     <row r="752">
-      <c r="D752" s="27"/>
+      <c r="D752" s="27" t="n"/>
     </row>
     <row r="753">
-      <c r="D753" s="27"/>
+      <c r="D753" s="27" t="n"/>
     </row>
     <row r="754">
-      <c r="D754" s="27"/>
+      <c r="D754" s="27" t="n"/>
     </row>
     <row r="755">
-      <c r="D755" s="27"/>
+      <c r="D755" s="27" t="n"/>
     </row>
     <row r="756">
-      <c r="D756" s="27"/>
+      <c r="D756" s="27" t="n"/>
     </row>
     <row r="757">
-      <c r="D757" s="27"/>
+      <c r="D757" s="27" t="n"/>
     </row>
     <row r="758">
-      <c r="D758" s="27"/>
+      <c r="D758" s="27" t="n"/>
     </row>
     <row r="759">
-      <c r="D759" s="27"/>
+      <c r="D759" s="27" t="n"/>
     </row>
     <row r="760">
-      <c r="D760" s="27"/>
+      <c r="D760" s="27" t="n"/>
     </row>
     <row r="761">
-      <c r="D761" s="27"/>
+      <c r="D761" s="27" t="n"/>
     </row>
     <row r="762">
-      <c r="D762" s="27"/>
+      <c r="D762" s="27" t="n"/>
     </row>
     <row r="763">
-      <c r="D763" s="27"/>
+      <c r="D763" s="27" t="n"/>
     </row>
     <row r="764">
-      <c r="D764" s="27"/>
+      <c r="D764" s="27" t="n"/>
     </row>
     <row r="765">
-      <c r="D765" s="27"/>
+      <c r="D765" s="27" t="n"/>
     </row>
     <row r="766">
-      <c r="D766" s="27"/>
+      <c r="D766" s="27" t="n"/>
     </row>
     <row r="767">
-      <c r="D767" s="27"/>
+      <c r="D767" s="27" t="n"/>
     </row>
     <row r="768">
-      <c r="D768" s="27"/>
+      <c r="D768" s="27" t="n"/>
     </row>
     <row r="769">
-      <c r="D769" s="27"/>
+      <c r="D769" s="27" t="n"/>
     </row>
     <row r="770">
-      <c r="D770" s="27"/>
+      <c r="D770" s="27" t="n"/>
     </row>
     <row r="771">
-      <c r="D771" s="27"/>
+      <c r="D771" s="27" t="n"/>
     </row>
     <row r="772">
-      <c r="D772" s="27"/>
+      <c r="D772" s="27" t="n"/>
     </row>
     <row r="773">
-      <c r="D773" s="27"/>
+      <c r="D773" s="27" t="n"/>
     </row>
     <row r="774">
-      <c r="D774" s="27"/>
+      <c r="D774" s="27" t="n"/>
     </row>
     <row r="775">
-      <c r="D775" s="27"/>
+      <c r="D775" s="27" t="n"/>
     </row>
     <row r="776">
-      <c r="D776" s="27"/>
+      <c r="D776" s="27" t="n"/>
     </row>
     <row r="777">
-      <c r="D777" s="27"/>
+      <c r="D777" s="27" t="n"/>
     </row>
     <row r="778">
-      <c r="D778" s="27"/>
+      <c r="D778" s="27" t="n"/>
     </row>
     <row r="779">
-      <c r="D779" s="27"/>
+      <c r="D779" s="27" t="n"/>
     </row>
     <row r="780">
-      <c r="D780" s="27"/>
+      <c r="D780" s="27" t="n"/>
     </row>
     <row r="781">
-      <c r="D781" s="27"/>
+      <c r="D781" s="27" t="n"/>
     </row>
     <row r="782">
-      <c r="D782" s="27"/>
+      <c r="D782" s="27" t="n"/>
     </row>
     <row r="783">
-      <c r="D783" s="27"/>
+      <c r="D783" s="27" t="n"/>
     </row>
     <row r="784">
-      <c r="D784" s="27"/>
+      <c r="D784" s="27" t="n"/>
     </row>
     <row r="785">
-      <c r="D785" s="27"/>
+      <c r="D785" s="27" t="n"/>
     </row>
     <row r="786">
-      <c r="D786" s="27"/>
+      <c r="D786" s="27" t="n"/>
     </row>
     <row r="787">
-      <c r="D787" s="27"/>
+      <c r="D787" s="27" t="n"/>
     </row>
     <row r="788">
-      <c r="D788" s="27"/>
+      <c r="D788" s="27" t="n"/>
     </row>
     <row r="789">
-      <c r="D789" s="27"/>
+      <c r="D789" s="27" t="n"/>
     </row>
     <row r="790">
-      <c r="D790" s="27"/>
+      <c r="D790" s="27" t="n"/>
     </row>
     <row r="791">
-      <c r="D791" s="27"/>
+      <c r="D791" s="27" t="n"/>
     </row>
     <row r="792">
-      <c r="D792" s="27"/>
+      <c r="D792" s="27" t="n"/>
     </row>
     <row r="793">
-      <c r="D793" s="27"/>
+      <c r="D793" s="27" t="n"/>
     </row>
     <row r="794">
-      <c r="D794" s="27"/>
+      <c r="D794" s="27" t="n"/>
     </row>
     <row r="795">
-      <c r="D795" s="27"/>
+      <c r="D795" s="27" t="n"/>
     </row>
     <row r="796">
-      <c r="D796" s="27"/>
+      <c r="D796" s="27" t="n"/>
     </row>
     <row r="797">
-      <c r="D797" s="27"/>
+      <c r="D797" s="27" t="n"/>
     </row>
     <row r="798">
-      <c r="D798" s="27"/>
+      <c r="D798" s="27" t="n"/>
     </row>
     <row r="799">
-      <c r="D799" s="27"/>
+      <c r="D799" s="27" t="n"/>
     </row>
     <row r="800">
-      <c r="D800" s="27"/>
+      <c r="D800" s="27" t="n"/>
     </row>
     <row r="801">
-      <c r="D801" s="27"/>
+      <c r="D801" s="27" t="n"/>
     </row>
     <row r="802">
-      <c r="D802" s="27"/>
+      <c r="D802" s="27" t="n"/>
     </row>
     <row r="803">
-      <c r="D803" s="27"/>
+      <c r="D803" s="27" t="n"/>
     </row>
     <row r="804">
-      <c r="D804" s="27"/>
+      <c r="D804" s="27" t="n"/>
     </row>
     <row r="805">
-      <c r="D805" s="27"/>
+      <c r="D805" s="27" t="n"/>
     </row>
     <row r="806">
-      <c r="D806" s="27"/>
+      <c r="D806" s="27" t="n"/>
     </row>
     <row r="807">
-      <c r="D807" s="27"/>
+      <c r="D807" s="27" t="n"/>
     </row>
     <row r="808">
-      <c r="D808" s="27"/>
+      <c r="D808" s="27" t="n"/>
     </row>
     <row r="809">
-      <c r="D809" s="27"/>
+      <c r="D809" s="27" t="n"/>
     </row>
     <row r="810">
-      <c r="D810" s="27"/>
+      <c r="D810" s="27" t="n"/>
     </row>
     <row r="811">
-      <c r="D811" s="27"/>
+      <c r="D811" s="27" t="n"/>
     </row>
     <row r="812">
-      <c r="D812" s="27"/>
+      <c r="D812" s="27" t="n"/>
     </row>
     <row r="813">
-      <c r="D813" s="27"/>
+      <c r="D813" s="27" t="n"/>
     </row>
     <row r="814">
-      <c r="D814" s="27"/>
+      <c r="D814" s="27" t="n"/>
     </row>
     <row r="815">
-      <c r="D815" s="27"/>
+      <c r="D815" s="27" t="n"/>
     </row>
     <row r="816">
-      <c r="D816" s="27"/>
+      <c r="D816" s="27" t="n"/>
     </row>
     <row r="817">
-      <c r="D817" s="27"/>
+      <c r="D817" s="27" t="n"/>
     </row>
     <row r="818">
-      <c r="D818" s="27"/>
+      <c r="D818" s="27" t="n"/>
     </row>
     <row r="819">
-      <c r="D819" s="27"/>
+      <c r="D819" s="27" t="n"/>
     </row>
     <row r="820">
-      <c r="D820" s="27"/>
+      <c r="D820" s="27" t="n"/>
     </row>
     <row r="821">
-      <c r="D821" s="27"/>
+      <c r="D821" s="27" t="n"/>
     </row>
     <row r="822">
-      <c r="D822" s="27"/>
+      <c r="D822" s="27" t="n"/>
     </row>
     <row r="823">
-      <c r="D823" s="27"/>
+      <c r="D823" s="27" t="n"/>
     </row>
     <row r="824">
-      <c r="D824" s="27"/>
+      <c r="D824" s="27" t="n"/>
     </row>
     <row r="825">
-      <c r="D825" s="27"/>
+      <c r="D825" s="27" t="n"/>
     </row>
     <row r="826">
-      <c r="D826" s="27"/>
+      <c r="D826" s="27" t="n"/>
     </row>
     <row r="827">
-      <c r="D827" s="27"/>
+      <c r="D827" s="27" t="n"/>
     </row>
     <row r="828">
-      <c r="D828" s="27"/>
+      <c r="D828" s="27" t="n"/>
     </row>
     <row r="829">
-      <c r="D829" s="27"/>
+      <c r="D829" s="27" t="n"/>
     </row>
     <row r="830">
-      <c r="D830" s="27"/>
+      <c r="D830" s="27" t="n"/>
     </row>
     <row r="831">
-      <c r="D831" s="27"/>
+      <c r="D831" s="27" t="n"/>
     </row>
     <row r="832">
-      <c r="D832" s="27"/>
+      <c r="D832" s="27" t="n"/>
     </row>
     <row r="833">
-      <c r="D833" s="27"/>
+      <c r="D833" s="27" t="n"/>
     </row>
     <row r="834">
-      <c r="D834" s="27"/>
+      <c r="D834" s="27" t="n"/>
     </row>
     <row r="835">
-      <c r="D835" s="27"/>
+      <c r="D835" s="27" t="n"/>
     </row>
     <row r="836">
-      <c r="D836" s="27"/>
+      <c r="D836" s="27" t="n"/>
     </row>
     <row r="837">
-      <c r="D837" s="27"/>
+      <c r="D837" s="27" t="n"/>
     </row>
     <row r="838">
-      <c r="D838" s="27"/>
+      <c r="D838" s="27" t="n"/>
     </row>
     <row r="839">
-      <c r="D839" s="27"/>
+      <c r="D839" s="27" t="n"/>
     </row>
     <row r="840">
-      <c r="D840" s="27"/>
+      <c r="D840" s="27" t="n"/>
     </row>
     <row r="841">
-      <c r="D841" s="27"/>
+      <c r="D841" s="27" t="n"/>
     </row>
     <row r="842">
-      <c r="D842" s="27"/>
+      <c r="D842" s="27" t="n"/>
     </row>
     <row r="843">
-      <c r="D843" s="27"/>
+      <c r="D843" s="27" t="n"/>
     </row>
     <row r="844">
-      <c r="D844" s="27"/>
+      <c r="D844" s="27" t="n"/>
     </row>
     <row r="845">
-      <c r="D845" s="27"/>
+      <c r="D845" s="27" t="n"/>
     </row>
     <row r="846">
-      <c r="D846" s="27"/>
+      <c r="D846" s="27" t="n"/>
     </row>
     <row r="847">
-      <c r="D847" s="27"/>
+      <c r="D847" s="27" t="n"/>
     </row>
     <row r="848">
-      <c r="D848" s="27"/>
+      <c r="D848" s="27" t="n"/>
     </row>
     <row r="849">
-      <c r="D849" s="27"/>
+      <c r="D849" s="27" t="n"/>
     </row>
     <row r="850">
-      <c r="D850" s="27"/>
+      <c r="D850" s="27" t="n"/>
     </row>
     <row r="851">
-      <c r="D851" s="27"/>
+      <c r="D851" s="27" t="n"/>
     </row>
     <row r="852">
-      <c r="D852" s="27"/>
+      <c r="D852" s="27" t="n"/>
     </row>
     <row r="853">
-      <c r="D853" s="27"/>
+      <c r="D853" s="27" t="n"/>
     </row>
     <row r="854">
-      <c r="D854" s="27"/>
+      <c r="D854" s="27" t="n"/>
     </row>
     <row r="855">
-      <c r="D855" s="27"/>
+      <c r="D855" s="27" t="n"/>
     </row>
     <row r="856">
-      <c r="D856" s="27"/>
+      <c r="D856" s="27" t="n"/>
     </row>
     <row r="857">
-      <c r="D857" s="27"/>
+      <c r="D857" s="27" t="n"/>
     </row>
     <row r="858">
-      <c r="D858" s="27"/>
+      <c r="D858" s="27" t="n"/>
     </row>
     <row r="859">
-      <c r="D859" s="27"/>
+      <c r="D859" s="27" t="n"/>
     </row>
     <row r="860">
-      <c r="D860" s="27"/>
+      <c r="D860" s="27" t="n"/>
     </row>
     <row r="861">
-      <c r="D861" s="27"/>
+      <c r="D861" s="27" t="n"/>
     </row>
     <row r="862">
-      <c r="D862" s="27"/>
+      <c r="D862" s="27" t="n"/>
     </row>
     <row r="863">
-      <c r="D863" s="27"/>
+      <c r="D863" s="27" t="n"/>
     </row>
     <row r="864">
-      <c r="D864" s="27"/>
+      <c r="D864" s="27" t="n"/>
     </row>
     <row r="865">
-      <c r="D865" s="27"/>
+      <c r="D865" s="27" t="n"/>
     </row>
     <row r="866">
-      <c r="D866" s="27"/>
+      <c r="D866" s="27" t="n"/>
     </row>
     <row r="867">
-      <c r="D867" s="27"/>
+      <c r="D867" s="27" t="n"/>
     </row>
     <row r="868">
-      <c r="D868" s="27"/>
+      <c r="D868" s="27" t="n"/>
     </row>
     <row r="869">
-      <c r="D869" s="27"/>
+      <c r="D869" s="27" t="n"/>
     </row>
     <row r="870">
-      <c r="D870" s="27"/>
+      <c r="D870" s="27" t="n"/>
     </row>
     <row r="871">
-      <c r="D871" s="27"/>
+      <c r="D871" s="27" t="n"/>
     </row>
     <row r="872">
-      <c r="D872" s="27"/>
+      <c r="D872" s="27" t="n"/>
     </row>
     <row r="873">
-      <c r="D873" s="27"/>
+      <c r="D873" s="27" t="n"/>
     </row>
     <row r="874">
-      <c r="D874" s="27"/>
+      <c r="D874" s="27" t="n"/>
     </row>
     <row r="875">
-      <c r="D875" s="27"/>
+      <c r="D875" s="27" t="n"/>
     </row>
     <row r="876">
-      <c r="D876" s="27"/>
+      <c r="D876" s="27" t="n"/>
     </row>
     <row r="877">
-      <c r="D877" s="27"/>
+      <c r="D877" s="27" t="n"/>
     </row>
     <row r="878">
-      <c r="D878" s="27"/>
+      <c r="D878" s="27" t="n"/>
     </row>
     <row r="879">
-      <c r="D879" s="27"/>
+      <c r="D879" s="27" t="n"/>
     </row>
     <row r="880">
-      <c r="D880" s="27"/>
+      <c r="D880" s="27" t="n"/>
     </row>
     <row r="881">
-      <c r="D881" s="27"/>
+      <c r="D881" s="27" t="n"/>
     </row>
     <row r="882">
-      <c r="D882" s="27"/>
+      <c r="D882" s="27" t="n"/>
     </row>
     <row r="883">
-      <c r="D883" s="27"/>
+      <c r="D883" s="27" t="n"/>
     </row>
     <row r="884">
-      <c r="D884" s="27"/>
+      <c r="D884" s="27" t="n"/>
     </row>
     <row r="885">
-      <c r="D885" s="27"/>
+      <c r="D885" s="27" t="n"/>
     </row>
     <row r="886">
-      <c r="D886" s="27"/>
+      <c r="D886" s="27" t="n"/>
     </row>
     <row r="887">
-      <c r="D887" s="27"/>
+      <c r="D887" s="27" t="n"/>
     </row>
     <row r="888">
-      <c r="D888" s="27"/>
+      <c r="D888" s="27" t="n"/>
     </row>
     <row r="889">
-      <c r="D889" s="27"/>
+      <c r="D889" s="27" t="n"/>
     </row>
     <row r="890">
-      <c r="D890" s="27"/>
+      <c r="D890" s="27" t="n"/>
     </row>
     <row r="891">
-      <c r="D891" s="27"/>
+      <c r="D891" s="27" t="n"/>
     </row>
     <row r="892">
-      <c r="D892" s="27"/>
+      <c r="D892" s="27" t="n"/>
     </row>
     <row r="893">
-      <c r="D893" s="27"/>
+      <c r="D893" s="27" t="n"/>
     </row>
     <row r="894">
-      <c r="D894" s="27"/>
+      <c r="D894" s="27" t="n"/>
     </row>
     <row r="895">
-      <c r="D895" s="27"/>
+      <c r="D895" s="27" t="n"/>
     </row>
     <row r="896">
-      <c r="D896" s="27"/>
+      <c r="D896" s="27" t="n"/>
     </row>
     <row r="897">
-      <c r="D897" s="27"/>
+      <c r="D897" s="27" t="n"/>
     </row>
     <row r="898">
-      <c r="D898" s="27"/>
+      <c r="D898" s="27" t="n"/>
     </row>
     <row r="899">
-      <c r="D899" s="27"/>
+      <c r="D899" s="27" t="n"/>
     </row>
     <row r="900">
-      <c r="D900" s="27"/>
+      <c r="D900" s="27" t="n"/>
     </row>
     <row r="901">
-      <c r="D901" s="27"/>
+      <c r="D901" s="27" t="n"/>
     </row>
     <row r="902">
-      <c r="D902" s="27"/>
+      <c r="D902" s="27" t="n"/>
     </row>
     <row r="903">
-      <c r="D903" s="27"/>
+      <c r="D903" s="27" t="n"/>
     </row>
     <row r="904">
-      <c r="D904" s="27"/>
+      <c r="D904" s="27" t="n"/>
     </row>
     <row r="905">
-      <c r="D905" s="27"/>
+      <c r="D905" s="27" t="n"/>
     </row>
     <row r="906">
-      <c r="D906" s="27"/>
+      <c r="D906" s="27" t="n"/>
     </row>
     <row r="907">
-      <c r="D907" s="27"/>
+      <c r="D907" s="27" t="n"/>
     </row>
     <row r="908">
-      <c r="D908" s="27"/>
+      <c r="D908" s="27" t="n"/>
     </row>
     <row r="909">
-      <c r="D909" s="27"/>
+      <c r="D909" s="27" t="n"/>
     </row>
     <row r="910">
-      <c r="D910" s="27"/>
+      <c r="D910" s="27" t="n"/>
     </row>
     <row r="911">
-      <c r="D911" s="27"/>
+      <c r="D911" s="27" t="n"/>
     </row>
     <row r="912">
-      <c r="D912" s="27"/>
+      <c r="D912" s="27" t="n"/>
     </row>
     <row r="913">
-      <c r="D913" s="27"/>
+      <c r="D913" s="27" t="n"/>
     </row>
     <row r="914">
-      <c r="D914" s="27"/>
+      <c r="D914" s="27" t="n"/>
     </row>
     <row r="915">
-      <c r="D915" s="27"/>
+      <c r="D915" s="27" t="n"/>
     </row>
     <row r="916">
-      <c r="D916" s="27"/>
+      <c r="D916" s="27" t="n"/>
     </row>
     <row r="917">
-      <c r="D917" s="27"/>
+      <c r="D917" s="27" t="n"/>
     </row>
     <row r="918">
-      <c r="D918" s="27"/>
+      <c r="D918" s="27" t="n"/>
     </row>
     <row r="919">
-      <c r="D919" s="27"/>
+      <c r="D919" s="27" t="n"/>
     </row>
     <row r="920">
-      <c r="D920" s="27"/>
+      <c r="D920" s="27" t="n"/>
     </row>
     <row r="921">
-      <c r="D921" s="27"/>
+      <c r="D921" s="27" t="n"/>
     </row>
     <row r="922">
-      <c r="D922" s="27"/>
+      <c r="D922" s="27" t="n"/>
     </row>
     <row r="923">
-      <c r="D923" s="27"/>
+      <c r="D923" s="27" t="n"/>
     </row>
     <row r="924">
-      <c r="D924" s="27"/>
+      <c r="D924" s="27" t="n"/>
     </row>
     <row r="925">
-      <c r="D925" s="27"/>
+      <c r="D925" s="27" t="n"/>
     </row>
     <row r="926">
-      <c r="D926" s="27"/>
+      <c r="D926" s="27" t="n"/>
     </row>
     <row r="927">
-      <c r="D927" s="27"/>
+      <c r="D927" s="27" t="n"/>
     </row>
     <row r="928">
-      <c r="D928" s="27"/>
+      <c r="D928" s="27" t="n"/>
     </row>
     <row r="929">
-      <c r="D929" s="27"/>
+      <c r="D929" s="27" t="n"/>
     </row>
     <row r="930">
-      <c r="D930" s="27"/>
+      <c r="D930" s="27" t="n"/>
     </row>
     <row r="931">
-      <c r="D931" s="27"/>
+      <c r="D931" s="27" t="n"/>
     </row>
     <row r="932">
-      <c r="D932" s="27"/>
+      <c r="D932" s="27" t="n"/>
     </row>
     <row r="933">
-      <c r="D933" s="27"/>
+      <c r="D933" s="27" t="n"/>
     </row>
     <row r="934">
-      <c r="D934" s="27"/>
+      <c r="D934" s="27" t="n"/>
     </row>
     <row r="935">
-      <c r="D935" s="27"/>
+      <c r="D935" s="27" t="n"/>
     </row>
     <row r="936">
-      <c r="D936" s="27"/>
+      <c r="D936" s="27" t="n"/>
     </row>
     <row r="937">
-      <c r="D937" s="27"/>
+      <c r="D937" s="27" t="n"/>
     </row>
     <row r="938">
-      <c r="D938" s="27"/>
+      <c r="D938" s="27" t="n"/>
     </row>
     <row r="939">
-      <c r="D939" s="27"/>
+      <c r="D939" s="27" t="n"/>
     </row>
     <row r="940">
-      <c r="D940" s="27"/>
+      <c r="D940" s="27" t="n"/>
     </row>
     <row r="941">
-      <c r="D941" s="27"/>
+      <c r="D941" s="27" t="n"/>
     </row>
     <row r="942">
-      <c r="D942" s="27"/>
+      <c r="D942" s="27" t="n"/>
     </row>
     <row r="943">
-      <c r="D943" s="27"/>
+      <c r="D943" s="27" t="n"/>
     </row>
     <row r="944">
-      <c r="D944" s="27"/>
+      <c r="D944" s="27" t="n"/>
     </row>
     <row r="945">
-      <c r="D945" s="27"/>
+      <c r="D945" s="27" t="n"/>
     </row>
     <row r="946">
-      <c r="D946" s="27"/>
+      <c r="D946" s="27" t="n"/>
     </row>
     <row r="947">
-      <c r="D947" s="27"/>
+      <c r="D947" s="27" t="n"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>